--- a/server/OUTPUT_MetalPlanDetailed.xlsx
+++ b/server/OUTPUT_MetalPlanDetailed.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BUN008</t>
+          <t>BUN025</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45689.95893330975</v>
+        <v>45722.65755555555</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>45691.64243497642</v>
+        <v>45723.76866666666</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>45635</v>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="G3" s="1" t="n">
-        <v>45686.67066666667</v>
+        <v>45714.60397777778</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>45686.69566666667</v>
+        <v>45714.62897777778</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>45635</v>
@@ -553,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BUN008</t>
+          <t>BUN025</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="G4" s="1" t="n">
-        <v>45689.10876496809</v>
+        <v>45722.09644444445</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>45689.82425317643</v>
+        <v>45722.56866666667</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>45635</v>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="G5" s="1" t="n">
-        <v>45686.67066666667</v>
+        <v>45714.60397777778</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>45686.68129166667</v>
+        <v>45714.61460277778</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>45635</v>
@@ -627,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BUN023</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G6" s="1" t="n">
-        <v>45689.00749069444</v>
+        <v>45722.82888888889</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>45689.78526847222</v>
+        <v>45723.60666666667</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>45635.09236111111</v>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="G7" s="1" t="n">
-        <v>45686.79529211111</v>
+        <v>45714.29223055555</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>45686.81376433333</v>
+        <v>45714.31070277778</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>45635.09236111111</v>
@@ -701,7 +701,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BUN024</t>
+          <t>BUN023</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="G8" s="1" t="n">
-        <v>45689.53302711111</v>
+        <v>45721.14888888889</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>45690.23749933334</v>
+        <v>45721.92666666667</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>45635.09236111111</v>
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="G9" s="1" t="n">
-        <v>45686.79529211111</v>
+        <v>45714.29223055555</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>45686.81376433333</v>
+        <v>45714.31070277778</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>45635.09236111111</v>
@@ -775,7 +775,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BUN024</t>
+          <t>BUN007</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="G10" s="1" t="n">
-        <v>45687.25053711111</v>
+        <v>45722.07555555556</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>45687.95500933333</v>
+        <v>45722.85333333333</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>45635.09236111111</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="G11" s="1" t="n">
-        <v>45686.79529211111</v>
+        <v>45714.29223055555</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>45686.81376433333</v>
+        <v>45714.31070277778</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>45635.09236111111</v>
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="G12" s="1" t="n">
-        <v>45688.84480643979</v>
+        <v>45721.07555555556</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>45689.62258421757</v>
+        <v>45721.85333333333</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>45635.09236111111</v>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="G13" s="1" t="n">
-        <v>45686.81671988889</v>
+        <v>45714.31365833333</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>45686.83519211111</v>
+        <v>45714.33213055556</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>45635.09236111111</v>
@@ -923,7 +923,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BUN014</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="G14" s="1" t="n">
-        <v>45689.84749069445</v>
+        <v>45719.39555555556</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>45690.62526847222</v>
+        <v>45720.17333333333</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>45635.09236111111</v>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="G15" s="1" t="n">
-        <v>45686.81671988889</v>
+        <v>45714.31365833333</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>45686.83519211111</v>
+        <v>45714.33213055556</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>45635.09236111111</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BUN014</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="G16" s="1" t="n">
-        <v>45688.16749069445</v>
+        <v>45721.91555555556</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>45688.94526847222</v>
+        <v>45722.69333333334</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="G17" s="1" t="n">
-        <v>45686.81671988889</v>
+        <v>45714.31365833333</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>45686.83519211111</v>
+        <v>45714.33213055556</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BUN024</t>
+          <t>BUN007</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="G18" s="1" t="n">
-        <v>45688.01136711111</v>
+        <v>45722.91555555556</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>45688.71583933333</v>
+        <v>45723.69333333334</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="G19" s="1" t="n">
-        <v>45686.83814766667</v>
+        <v>45714.33508611111</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>45686.85661988889</v>
+        <v>45714.35355833334</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BUN023</t>
+          <t>BUN007</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="G20" s="1" t="n">
-        <v>45686.87598655555</v>
+        <v>45721.23555555556</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>45687.65376433334</v>
+        <v>45722.01333333334</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="G21" s="1" t="n">
-        <v>45686.83814766667</v>
+        <v>45714.33508611111</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>45686.85661988889</v>
+        <v>45714.35355833334</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BUN024</t>
+          <t>BUN004</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="G22" s="1" t="n">
-        <v>45688.77219711111</v>
+        <v>45721.99738620556</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>45689.47666933334</v>
+        <v>45722.77516398334</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="G23" s="1" t="n">
-        <v>45686.83814766667</v>
+        <v>45714.33508611111</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>45686.85661988889</v>
+        <v>45714.35355833334</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BUN014</t>
+          <t>BUN023</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="G24" s="1" t="n">
-        <v>45689.68480643979</v>
+        <v>45721.98888888889</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>45690.46258421757</v>
+        <v>45722.76666666667</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="G25" s="1" t="n">
-        <v>45686.85957544445</v>
+        <v>45714.35651388889</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>45686.87804766667</v>
+        <v>45714.37498611111</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BUN023</t>
+          <t>BUN014</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="G26" s="1" t="n">
-        <v>45688.55598655556</v>
+        <v>45722.75555555556</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>45689.33376433334</v>
+        <v>45723.53333333333</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="G27" s="1" t="n">
-        <v>45686.85957544445</v>
+        <v>45714.35651388889</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>45686.87804766667</v>
+        <v>45714.37498611111</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BUN023</t>
+          <t>BUN014</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="G28" s="1" t="n">
-        <v>45689.39598655556</v>
+        <v>45720.23555555556</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>45690.17376433333</v>
+        <v>45721.01333333334</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="G29" s="1" t="n">
-        <v>45686.85957544445</v>
+        <v>45714.35651388889</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>45686.87804766667</v>
+        <v>45714.37498611111</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BUN023</t>
+          <t>BUN004</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="G30" s="1" t="n">
-        <v>45687.71598655556</v>
+        <v>45722.83738620555</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>45688.49376433333</v>
+        <v>45723.61516398333</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="G31" s="1" t="n">
-        <v>45686.88100322222</v>
+        <v>45714.37794166667</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>45686.89947544444</v>
+        <v>45714.39641388889</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BUN014</t>
+          <t>BUN007</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G32" s="1" t="n">
-        <v>45688.00480643979</v>
+        <v>45720.39555555556</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>45688.78258421757</v>
+        <v>45721.17333333333</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1646,10 +1646,10 @@
         </is>
       </c>
       <c r="G33" s="1" t="n">
-        <v>45686.88100322222</v>
+        <v>45714.37794166667</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>45686.89947544444</v>
+        <v>45714.39641388889</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BUN024</t>
+          <t>BUN023</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="G34" s="1" t="n">
-        <v>45686.84194322222</v>
+        <v>45720.69777777778</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>45687.19417933333</v>
+        <v>45721.08666666667</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1720,10 +1720,10 @@
         </is>
       </c>
       <c r="G35" s="1" t="n">
-        <v>45686.88100322222</v>
+        <v>45714.37794166667</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>45686.89023933333</v>
+        <v>45714.38717777777</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>45635.09236111111</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BUN001</t>
+          <t>BUN013</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="G36" s="1" t="n">
-        <v>45687.80589760306</v>
+        <v>45723.12873970278</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>45688.54748586695</v>
+        <v>45723.87032796667</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>45635.34652777778</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="G37" s="1" t="n">
-        <v>45686.92156294444</v>
+        <v>45714.00295555555</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>45686.94003516667</v>
+        <v>45714.02142777778</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>45635.34652777778</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BUN001</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="G38" s="1" t="n">
-        <v>45688.60681292805</v>
+        <v>45721.83937038611</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>45689.34840119194</v>
+        <v>45722.58095865</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>45635.34652777778</v>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="G39" s="1" t="n">
-        <v>45686.92156294444</v>
+        <v>45714.00295555555</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>45686.94003516667</v>
+        <v>45714.02142777778</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>45635.34652777778</v>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BUN015</t>
+          <t>BUN013</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="G40" s="1" t="n">
-        <v>45689.38145235834</v>
+        <v>45722.32782437777</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>45690.12304062222</v>
+        <v>45723.06941264166</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>45635.34652777778</v>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="G41" s="1" t="n">
-        <v>45686.92156294444</v>
+        <v>45714.02438333333</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>45686.94003516667</v>
+        <v>45714.04285555556</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>45635.34652777778</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BUN012</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1979,10 +1979,10 @@
         </is>
       </c>
       <c r="G42" s="1" t="n">
-        <v>45687.896631275</v>
+        <v>45722.20110732528</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>45688.63821953889</v>
+        <v>45722.94269558917</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="G43" s="1" t="n">
-        <v>45686.94299072222</v>
+        <v>45714.02438333333</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>45686.96146294445</v>
+        <v>45714.04285555556</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BUN014</t>
+          <t>BUN006</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="G44" s="1" t="n">
-        <v>45687.20099595368</v>
+        <v>45722.17469699257</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>45687.94258421757</v>
+        <v>45722.91628525646</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="G45" s="1" t="n">
-        <v>45686.94299072222</v>
+        <v>45714.04581111111</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>45686.96146294445</v>
+        <v>45714.06428333333</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BUN013</t>
+          <t>BUN003</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="G46" s="1" t="n">
-        <v>45686.99936222778</v>
+        <v>45721.99449104445</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>45687.74095049166</v>
+        <v>45722.73607930834</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="G47" s="1" t="n">
-        <v>45686.94299072222</v>
+        <v>45714.04581111111</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>45686.96146294445</v>
+        <v>45714.06428333333</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BUN003</t>
+          <t>BUN006</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="G48" s="1" t="n">
-        <v>45688.89269095</v>
+        <v>45722.97561231757</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>45689.63427921389</v>
+        <v>45723.71720058146</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="G49" s="1" t="n">
-        <v>45686.9644185</v>
+        <v>45714.06723888889</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>45686.98289072223</v>
+        <v>45714.08571111111</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BUN007</t>
+          <t>BUN006</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="G50" s="1" t="n">
-        <v>45687.80027755278</v>
+        <v>45723.77652764257</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>45688.54186581667</v>
+        <v>45724.51811590646</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2312,10 +2312,10 @@
         </is>
       </c>
       <c r="G51" s="1" t="n">
-        <v>45686.9644185</v>
+        <v>45714.06723888889</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>45686.98289072223</v>
+        <v>45714.08571111111</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="G52" s="1" t="n">
-        <v>45687.80027755278</v>
+        <v>45720.72599372778</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>45688.54186581667</v>
+        <v>45721.46758199167</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="G53" s="1" t="n">
-        <v>45686.9644185</v>
+        <v>45714.08866666667</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>45686.98289072223</v>
+        <v>45714.10713888889</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BUN012</t>
+          <t>BUN024</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="G54" s="1" t="n">
-        <v>45689.498461925</v>
+        <v>45721.558175</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>45690.24005018889</v>
+        <v>45722.32671666667</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="G55" s="1" t="n">
-        <v>45686.98584627778</v>
+        <v>45714.08866666667</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>45687.0043185</v>
+        <v>45714.10713888889</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BUN001</t>
+          <t>BUN012</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2497,10 +2497,10 @@
         </is>
       </c>
       <c r="G56" s="1" t="n">
-        <v>45689.40772825306</v>
+        <v>45722.27357571945</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>45690.14931651694</v>
+        <v>45723.01516398333</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="G57" s="1" t="n">
-        <v>45686.98584627778</v>
+        <v>45714.17437777778</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>45687.0043185</v>
+        <v>45714.19285</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BUN006</t>
+          <t>BUN012</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2571,10 +2571,10 @@
         </is>
       </c>
       <c r="G58" s="1" t="n">
-        <v>45688.51314838611</v>
+        <v>45723.07449104444</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>45689.25473665</v>
+        <v>45723.81607930833</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2608,10 +2608,10 @@
         </is>
       </c>
       <c r="G59" s="1" t="n">
-        <v>45686.98584627778</v>
+        <v>45714.17437777778</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>45687.0043185</v>
+        <v>45714.19285</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BUN013</t>
+          <t>BUN003</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="G60" s="1" t="n">
-        <v>45689.40210820278</v>
+        <v>45722.79540636944</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>45690.14369646666</v>
+        <v>45723.53699463333</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2682,10 +2682,10 @@
         </is>
       </c>
       <c r="G61" s="1" t="n">
-        <v>45687.00727405556</v>
+        <v>45714.19580555556</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>45687.02574627778</v>
+        <v>45714.21427777778</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BUN004</t>
+          <t>BUN003</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="G62" s="1" t="n">
-        <v>45689.40210820278</v>
+        <v>45720.39266039444</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>45690.14369646666</v>
+        <v>45721.13424865833</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="G63" s="1" t="n">
-        <v>45687.00727405556</v>
+        <v>45714.19580555556</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>45687.02574627778</v>
+        <v>45714.21427777778</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BUN004</t>
+          <t>BUN013</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="G64" s="1" t="n">
-        <v>45687.80027755278</v>
+        <v>45721.52690905278</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>45688.54186581667</v>
+        <v>45722.26849731667</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="G65" s="1" t="n">
-        <v>45687.00727405556</v>
+        <v>45714.11009444445</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>45687.02574627778</v>
+        <v>45714.12856666667</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BUN004</t>
+          <t>BUN003</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="G66" s="1" t="n">
-        <v>45688.60119287778</v>
+        <v>45723.59632169444</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>45689.34278114167</v>
+        <v>45724.33790995833</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2904,10 +2904,10 @@
         </is>
       </c>
       <c r="G67" s="1" t="n">
-        <v>45687.02870183333</v>
+        <v>45714.11009444445</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>45687.04717405556</v>
+        <v>45714.12856666667</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BUN006</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="G68" s="1" t="n">
-        <v>45690.11497903611</v>
+        <v>45722.64028571111</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>45690.8565673</v>
+        <v>45723.381873975</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2978,10 +2978,10 @@
         </is>
       </c>
       <c r="G69" s="1" t="n">
-        <v>45687.02870183333</v>
+        <v>45714.13152222223</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>45687.04717405556</v>
+        <v>45714.14999444444</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>45635.34652777778</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BUN015</t>
+          <t>BUN024</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G70" s="1" t="n">
-        <v>45690.18236768333</v>
+        <v>45720.72815</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>45690.92395594722</v>
+        <v>45721.49669166667</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="G71" s="1" t="n">
-        <v>45687.02870183333</v>
+        <v>45714.13152222223</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>45687.04717405556</v>
+        <v>45714.14999444444</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BUN007</t>
+          <t>BUN004</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3089,10 +3089,10 @@
         </is>
       </c>
       <c r="G72" s="1" t="n">
-        <v>45686.99936222778</v>
+        <v>45720.39266039444</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>45687.74095049166</v>
+        <v>45721.13424865833</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3126,10 +3126,10 @@
         </is>
       </c>
       <c r="G73" s="1" t="n">
-        <v>45687.05012961111</v>
+        <v>45714.00295555555</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>45687.06860183334</v>
+        <v>45714.02142777778</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="G74" s="1" t="n">
-        <v>45687.71223306111</v>
+        <v>45721.37378166757</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>45688.453821325</v>
+        <v>45722.11536993146</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3200,10 +3200,10 @@
         </is>
       </c>
       <c r="G75" s="1" t="n">
-        <v>45687.05012961111</v>
+        <v>45714.11009444445</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>45687.06860183334</v>
+        <v>45714.12856666667</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BUN015</t>
+          <t>BUN024</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="G76" s="1" t="n">
-        <v>45688.58053703333</v>
+        <v>45723.218225</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>45689.32212529722</v>
+        <v>45723.98676666667</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="G77" s="1" t="n">
-        <v>45687.05012961111</v>
+        <v>45714.02438333333</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>45687.06860183334</v>
+        <v>45714.04285555556</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BUN007</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3311,10 +3311,10 @@
         </is>
       </c>
       <c r="G78" s="1" t="n">
-        <v>45689.40210820278</v>
+        <v>45723.44120103611</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>45690.14369646666</v>
+        <v>45724.1827893</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3348,10 +3348,10 @@
         </is>
       </c>
       <c r="G79" s="1" t="n">
-        <v>45687.07155738889</v>
+        <v>45714.04581111111</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>45687.09002961111</v>
+        <v>45714.06428333333</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BUN006</t>
+          <t>BUN012</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3385,10 +3385,10 @@
         </is>
       </c>
       <c r="G80" s="1" t="n">
-        <v>45689.31406371111</v>
+        <v>45721.47266039444</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>45690.055651975</v>
+        <v>45722.21424865833</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="G81" s="1" t="n">
-        <v>45687.07155738889</v>
+        <v>45714.15295</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>45687.09002961111</v>
+        <v>45714.17142222222</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BUN004</t>
+          <t>BUN003</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3459,10 +3459,10 @@
         </is>
       </c>
       <c r="G82" s="1" t="n">
-        <v>45686.99936222778</v>
+        <v>45721.19357571944</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>45687.74095049166</v>
+        <v>45721.93516398333</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="G83" s="1" t="n">
-        <v>45687.07155738889</v>
+        <v>45714.06723888889</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>45687.09002961111</v>
+        <v>45714.08571111111</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BUN007</t>
+          <t>BUN006</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3533,10 +3533,10 @@
         </is>
       </c>
       <c r="G84" s="1" t="n">
-        <v>45688.60119287778</v>
+        <v>45720.57286634257</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>45689.34278114167</v>
+        <v>45721.31445460646</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3570,10 +3570,10 @@
         </is>
       </c>
       <c r="G85" s="1" t="n">
-        <v>45687.09298516667</v>
+        <v>45714.08866666667</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>45687.11145738889</v>
+        <v>45714.10713888889</v>
       </c>
       <c r="I85" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BUN012</t>
+          <t>BUN004</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3607,10 +3607,10 @@
         </is>
       </c>
       <c r="G86" s="1" t="n">
-        <v>45687.09571595</v>
+        <v>45721.19357571944</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>45687.83730421389</v>
+        <v>45721.93516398333</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3644,10 +3644,10 @@
         </is>
       </c>
       <c r="G87" s="1" t="n">
-        <v>45687.09298516667</v>
+        <v>45714.15295</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>45687.11145738889</v>
+        <v>45714.17142222222</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BUN003</t>
+          <t>BUN024</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="G88" s="1" t="n">
-        <v>45689.693606275</v>
+        <v>45722.3882</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>45690.43519453889</v>
+        <v>45723.15674166667</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3718,10 +3718,10 @@
         </is>
       </c>
       <c r="G89" s="1" t="n">
-        <v>45687.09298516667</v>
+        <v>45714.13152222223</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>45687.11145738889</v>
+        <v>45714.14999444444</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BUN013</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="G90" s="1" t="n">
-        <v>45688.60119287778</v>
+        <v>45723.00202265027</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>45689.34278114167</v>
+        <v>45723.74361091416</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3792,10 +3792,10 @@
         </is>
       </c>
       <c r="G91" s="1" t="n">
-        <v>45687.11441294444</v>
+        <v>45714.21723333334</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>45687.13288516667</v>
+        <v>45714.23570555555</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BUN012</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="G92" s="1" t="n">
-        <v>45688.6975466</v>
+        <v>45721.03845506111</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>45689.43913486389</v>
+        <v>45721.780043325</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="G93" s="1" t="n">
-        <v>45687.11441294444</v>
+        <v>45714.21723333334</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>45687.13288516667</v>
+        <v>45714.23570555555</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BUN014</t>
+          <t>BUN006</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="G94" s="1" t="n">
-        <v>45686.9748115332</v>
+        <v>45720.34668192208</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>45687.14166889257</v>
+        <v>45720.51353928146</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3940,10 +3940,10 @@
         </is>
       </c>
       <c r="G95" s="1" t="n">
-        <v>45687.11441294444</v>
+        <v>45714.15295</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>45687.11856919444</v>
+        <v>45714.15710625</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>45635.34652777778</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BUN015</t>
+          <t>BUN001</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="G96" s="1" t="n">
-        <v>45687.07676552778</v>
+        <v>45722.66125247379</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>45687.77120997222</v>
+        <v>45723.35569691823</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>45635.56458333333</v>
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="G97" s="1" t="n">
-        <v>45686.67027777778</v>
+        <v>45713.33694444445</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>45686.69284722222</v>
+        <v>45713.35951388889</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>45635.56458333333</v>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BUN006</t>
+          <t>BUN001</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="G98" s="1" t="n">
-        <v>45686.95846155556</v>
+        <v>45724.16125247379</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>45687.652906</v>
+        <v>45724.85569691823</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>45635.56458333333</v>
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="G99" s="1" t="n">
-        <v>45686.67027777778</v>
+        <v>45713.33694444445</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>45686.69284722222</v>
+        <v>45713.35951388889</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>45635.56458333333</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BUN015</t>
+          <t>BUN001</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="G100" s="1" t="n">
-        <v>45687.82676552778</v>
+        <v>45723.41125247379</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>45688.52120997222</v>
+        <v>45724.10569691823</v>
       </c>
       <c r="I100" s="1" t="n">
         <v>45635.56458333333</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MDW004</t>
+          <t>MDW001</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4162,10 +4162,10 @@
         </is>
       </c>
       <c r="G101" s="1" t="n">
-        <v>45686.90211433333</v>
+        <v>45713.363125</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>45686.91860738889</v>
+        <v>45713.38569444444</v>
       </c>
       <c r="I101" s="1" t="n">
         <v>45635.56458333333</v>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BUN006</t>
+          <t>BUN037</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -4199,10 +4199,10 @@
         </is>
       </c>
       <c r="G102" s="1" t="n">
-        <v>45686.69551388889</v>
+        <v>45719.66933333333</v>
       </c>
       <c r="H102" s="1" t="n">
-        <v>45686.72884722222</v>
+        <v>45719.70266666666</v>
       </c>
       <c r="I102" s="1" t="n">
         <v>45635.56458333333</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MDW004</t>
+          <t>MDW001</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4236,10 +4236,10 @@
         </is>
       </c>
       <c r="G103" s="1" t="n">
-        <v>45686.90211433333</v>
+        <v>45713.363125</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>45686.902906</v>
+        <v>45713.36420833333</v>
       </c>
       <c r="I103" s="1" t="n">
         <v>45635.56458333333</v>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BUN012</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="G104" s="1" t="n">
-        <v>45689.22792711111</v>
+        <v>45720.71888888889</v>
       </c>
       <c r="H104" s="1" t="n">
-        <v>45689.92237155556</v>
+        <v>45721.41333333333</v>
       </c>
       <c r="I104" s="1" t="n">
         <v>45636.45486111111</v>
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="G105" s="1" t="n">
-        <v>45686.69645833333</v>
+        <v>45713.62485</v>
       </c>
       <c r="H105" s="1" t="n">
-        <v>45686.71902777778</v>
+        <v>45713.64741944445</v>
       </c>
       <c r="I105" s="1" t="n">
         <v>45636.45486111111</v>
@@ -4347,10 +4347,10 @@
         </is>
       </c>
       <c r="G106" s="1" t="n">
-        <v>45686.67027777778</v>
+        <v>45713.59866944444</v>
       </c>
       <c r="H106" s="1" t="n">
-        <v>45686.69284722222</v>
+        <v>45713.62123888889</v>
       </c>
       <c r="I106" s="1" t="n">
         <v>45636.45486111111</v>
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="G107" s="1" t="n">
-        <v>45686.73083333333</v>
+        <v>45720.35777777778</v>
       </c>
       <c r="H107" s="1" t="n">
-        <v>45687.03638888889</v>
+        <v>45720.66333333333</v>
       </c>
       <c r="I107" s="1" t="n">
         <v>45636.45486111111</v>
@@ -4421,10 +4421,10 @@
         </is>
       </c>
       <c r="G108" s="1" t="n">
-        <v>45686.69645833333</v>
+        <v>45713.62485</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>45686.70638888889</v>
+        <v>45713.63478055556</v>
       </c>
       <c r="I108" s="1" t="n">
         <v>45636.45486111111</v>
@@ -4458,10 +4458,10 @@
         </is>
       </c>
       <c r="G109" s="1" t="n">
-        <v>45686.67027777778</v>
+        <v>45713.59866944444</v>
       </c>
       <c r="H109" s="1" t="n">
-        <v>45686.68020833333</v>
+        <v>45713.6086</v>
       </c>
       <c r="I109" s="1" t="n">
         <v>45636.45486111111</v>
@@ -4495,10 +4495,10 @@
         </is>
       </c>
       <c r="G110" s="1" t="n">
-        <v>45690.03168224736</v>
+        <v>45723.43320949736</v>
       </c>
       <c r="H110" s="1" t="n">
-        <v>45690.51148020917</v>
+        <v>45723.91300745917</v>
       </c>
       <c r="I110" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MDW003</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -4532,10 +4532,10 @@
         </is>
       </c>
       <c r="G111" s="1" t="n">
-        <v>45686.66814444445</v>
+        <v>45714.4275</v>
       </c>
       <c r="H111" s="1" t="n">
-        <v>45686.67738055556</v>
+        <v>45714.44003472223</v>
       </c>
       <c r="I111" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="G112" s="1" t="n">
-        <v>45686.72103333334</v>
+        <v>45714.39841944444</v>
       </c>
       <c r="H112" s="1" t="n">
-        <v>45686.73356805556</v>
+        <v>45714.41095416667</v>
       </c>
       <c r="I112" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="G113" s="1" t="n">
-        <v>45687.52167952459</v>
+        <v>45721.66198230236</v>
       </c>
       <c r="H113" s="1" t="n">
-        <v>45688.00147748639</v>
+        <v>45722.14178026417</v>
       </c>
       <c r="I113" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MDW003</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -4643,10 +4643,10 @@
         </is>
       </c>
       <c r="G114" s="1" t="n">
-        <v>45686.66814444445</v>
+        <v>45714.4275</v>
       </c>
       <c r="H114" s="1" t="n">
-        <v>45686.67738055556</v>
+        <v>45714.44003472223</v>
       </c>
       <c r="I114" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4680,10 +4680,10 @@
         </is>
       </c>
       <c r="G115" s="1" t="n">
-        <v>45686.73557361111</v>
+        <v>45713.37895972222</v>
       </c>
       <c r="H115" s="1" t="n">
-        <v>45686.74810833333</v>
+        <v>45713.39149444445</v>
       </c>
       <c r="I115" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BUN001</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="G116" s="1" t="n">
-        <v>45687.26677258014</v>
+        <v>45721.37067967028</v>
       </c>
       <c r="H116" s="1" t="n">
-        <v>45687.74657054195</v>
+        <v>45721.85047763208</v>
       </c>
       <c r="I116" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MDW003</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4754,10 +4754,10 @@
         </is>
       </c>
       <c r="G117" s="1" t="n">
-        <v>45686.66814444445</v>
+        <v>45714.4275</v>
       </c>
       <c r="H117" s="1" t="n">
-        <v>45686.67738055556</v>
+        <v>45714.44003472223</v>
       </c>
       <c r="I117" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4791,10 +4791,10 @@
         </is>
       </c>
       <c r="G118" s="1" t="n">
-        <v>45686.73557361111</v>
+        <v>45713.33533888889</v>
       </c>
       <c r="H118" s="1" t="n">
-        <v>45686.74810833333</v>
+        <v>45713.34787361111</v>
       </c>
       <c r="I118" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BUN002</t>
+          <t>BUN015</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="G119" s="1" t="n">
-        <v>45689.44589649</v>
+        <v>45722.40544444444</v>
       </c>
       <c r="H119" s="1" t="n">
-        <v>45689.92569445181</v>
+        <v>45723.06516666667</v>
       </c>
       <c r="I119" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MDW003</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="G120" s="1" t="n">
-        <v>45686.66814444445</v>
+        <v>45714.44204027778</v>
       </c>
       <c r="H120" s="1" t="n">
-        <v>45686.67738055556</v>
+        <v>45714.454575</v>
       </c>
       <c r="I120" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4902,10 +4902,10 @@
         </is>
       </c>
       <c r="G121" s="1" t="n">
-        <v>45686.75011388889</v>
+        <v>45713.34987916666</v>
       </c>
       <c r="H121" s="1" t="n">
-        <v>45686.76264861111</v>
+        <v>45713.36241388889</v>
       </c>
       <c r="I121" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN054</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="G122" s="1" t="n">
-        <v>45689.37605547639</v>
+        <v>45721.18833333333</v>
       </c>
       <c r="H122" s="1" t="n">
-        <v>45689.8558534382</v>
+        <v>45721.98</v>
       </c>
       <c r="I122" s="1" t="n">
         <v>45636.46736111111</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="G123" s="1" t="n">
-        <v>45686.98275833333</v>
+        <v>45714.44204027778</v>
       </c>
       <c r="H123" s="1" t="n">
-        <v>45686.99529305556</v>
+        <v>45714.454575</v>
       </c>
       <c r="I123" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5013,10 +5013,10 @@
         </is>
       </c>
       <c r="G124" s="1" t="n">
-        <v>45686.75011388889</v>
+        <v>45713.36441944444</v>
       </c>
       <c r="H124" s="1" t="n">
-        <v>45686.76264861111</v>
+        <v>45713.37695416667</v>
       </c>
       <c r="I124" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BUN025</t>
+          <t>BUN011</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -5050,10 +5050,10 @@
         </is>
       </c>
       <c r="G125" s="1" t="n">
-        <v>45688.12809330555</v>
+        <v>45720.76246717028</v>
       </c>
       <c r="H125" s="1" t="n">
-        <v>45688.91975997222</v>
+        <v>45721.24226513208</v>
       </c>
       <c r="I125" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -5087,10 +5087,10 @@
         </is>
       </c>
       <c r="G126" s="1" t="n">
-        <v>45686.98275833333</v>
+        <v>45714.44204027778</v>
       </c>
       <c r="H126" s="1" t="n">
-        <v>45686.99529305556</v>
+        <v>45714.454575</v>
       </c>
       <c r="I126" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="G127" s="1" t="n">
-        <v>45686.72103333334</v>
+        <v>45713.33533888889</v>
       </c>
       <c r="H127" s="1" t="n">
-        <v>45686.73356805556</v>
+        <v>45713.34787361111</v>
       </c>
       <c r="I127" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -5161,10 +5161,10 @@
         </is>
       </c>
       <c r="G128" s="1" t="n">
-        <v>45690.41241907389</v>
+        <v>45721.88886146903</v>
       </c>
       <c r="H128" s="1" t="n">
-        <v>45690.8922170357</v>
+        <v>45722.36865943083</v>
       </c>
       <c r="I128" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5198,10 +5198,10 @@
         </is>
       </c>
       <c r="G129" s="1" t="n">
-        <v>45686.98275833333</v>
+        <v>45714.45658055555</v>
       </c>
       <c r="H129" s="1" t="n">
-        <v>45686.99529305556</v>
+        <v>45714.46911527778</v>
       </c>
       <c r="I129" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5235,10 +5235,10 @@
         </is>
       </c>
       <c r="G130" s="1" t="n">
-        <v>45686.76465416667</v>
+        <v>45713.37895972222</v>
       </c>
       <c r="H130" s="1" t="n">
-        <v>45686.77718888889</v>
+        <v>45713.39149444445</v>
       </c>
       <c r="I130" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BUN037</t>
+          <t>BUN001</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="G131" s="1" t="n">
-        <v>45689.46282275</v>
+        <v>45722.12589895642</v>
       </c>
       <c r="H131" s="1" t="n">
-        <v>45690.25448941666</v>
+        <v>45722.60569691823</v>
       </c>
       <c r="I131" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5309,10 +5309,10 @@
         </is>
       </c>
       <c r="G132" s="1" t="n">
-        <v>45686.7122125</v>
+        <v>45714.45658055555</v>
       </c>
       <c r="H132" s="1" t="n">
-        <v>45686.72474722222</v>
+        <v>45714.46911527778</v>
       </c>
       <c r="I132" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="G133" s="1" t="n">
-        <v>45686.76465416667</v>
+        <v>45714.39841944444</v>
       </c>
       <c r="H133" s="1" t="n">
-        <v>45686.77718888889</v>
+        <v>45714.41095416667</v>
       </c>
       <c r="I133" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN015</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="G134" s="1" t="n">
-        <v>45689.37861</v>
+        <v>45721.69294444445</v>
       </c>
       <c r="H134" s="1" t="n">
-        <v>45690.43416555555</v>
+        <v>45722.35266666667</v>
       </c>
       <c r="I134" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="G135" s="1" t="n">
-        <v>45686.7122125</v>
+        <v>45714.45658055555</v>
       </c>
       <c r="H135" s="1" t="n">
-        <v>45686.72474722222</v>
+        <v>45714.46911527778</v>
       </c>
       <c r="I135" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5457,10 +5457,10 @@
         </is>
       </c>
       <c r="G136" s="1" t="n">
-        <v>45686.77919444445</v>
+        <v>45713.36441944444</v>
       </c>
       <c r="H136" s="1" t="n">
-        <v>45686.79172916667</v>
+        <v>45713.37695416667</v>
       </c>
       <c r="I136" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BUN037</t>
+          <t>BUN002</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -5494,10 +5494,10 @@
         </is>
       </c>
       <c r="G137" s="1" t="n">
-        <v>45687.75282275</v>
+        <v>45722.89818756653</v>
       </c>
       <c r="H137" s="1" t="n">
-        <v>45688.54448941666</v>
+        <v>45723.37798552834</v>
       </c>
       <c r="I137" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5531,10 +5531,10 @@
         </is>
       </c>
       <c r="G138" s="1" t="n">
-        <v>45686.7122125</v>
+        <v>45714.47112083333</v>
       </c>
       <c r="H138" s="1" t="n">
-        <v>45686.72474722222</v>
+        <v>45714.48365555555</v>
       </c>
       <c r="I138" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MDW004</t>
+          <t>MDW002</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="G139" s="1" t="n">
-        <v>45686.69767222222</v>
+        <v>45713.34987916666</v>
       </c>
       <c r="H139" s="1" t="n">
-        <v>45686.71020694444</v>
+        <v>45713.36241388889</v>
       </c>
       <c r="I139" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN009</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -5605,10 +5605,10 @@
         </is>
       </c>
       <c r="G140" s="1" t="n">
-        <v>45688.23861</v>
+        <v>45721.36048230236</v>
       </c>
       <c r="H140" s="1" t="n">
-        <v>45689.29416555556</v>
+        <v>45721.84028026416</v>
       </c>
       <c r="I140" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -5642,10 +5642,10 @@
         </is>
       </c>
       <c r="G141" s="1" t="n">
-        <v>45686.99729861111</v>
+        <v>45714.47112083333</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>45687.00983333333</v>
+        <v>45714.48365555555</v>
       </c>
       <c r="I141" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="G142" s="1" t="n">
-        <v>45686.77919444445</v>
+        <v>45713.40804027778</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>45686.79172916667</v>
+        <v>45713.420575</v>
       </c>
       <c r="I142" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5716,10 +5716,10 @@
         </is>
       </c>
       <c r="G143" s="1" t="n">
-        <v>45688.92771469125</v>
+        <v>45721.86182396903</v>
       </c>
       <c r="H143" s="1" t="n">
-        <v>45689.40751265306</v>
+        <v>45722.34162193083</v>
       </c>
       <c r="I143" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5753,10 +5753,10 @@
         </is>
       </c>
       <c r="G144" s="1" t="n">
-        <v>45686.99729861111</v>
+        <v>45714.47112083333</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>45687.00983333333</v>
+        <v>45714.48365555555</v>
       </c>
       <c r="I144" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="G145" s="1" t="n">
-        <v>45686.79373472223</v>
+        <v>45713.40804027778</v>
       </c>
       <c r="H145" s="1" t="n">
-        <v>45686.80626944445</v>
+        <v>45713.420575</v>
       </c>
       <c r="I145" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5827,10 +5827,10 @@
         </is>
       </c>
       <c r="G146" s="1" t="n">
-        <v>45687.30332828139</v>
+        <v>45723.35337616403</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>45687.78312624319</v>
+        <v>45723.83317412583</v>
       </c>
       <c r="I146" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -5864,10 +5864,10 @@
         </is>
       </c>
       <c r="G147" s="1" t="n">
-        <v>45686.99729861111</v>
+        <v>45714.48566111111</v>
       </c>
       <c r="H147" s="1" t="n">
-        <v>45687.00983333333</v>
+        <v>45714.49819583333</v>
       </c>
       <c r="I147" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5901,10 +5901,10 @@
         </is>
       </c>
       <c r="G148" s="1" t="n">
-        <v>45686.79373472223</v>
+        <v>45713.42258055555</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>45686.80626944445</v>
+        <v>45713.43511527777</v>
       </c>
       <c r="I148" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN015</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -5938,10 +5938,10 @@
         </is>
       </c>
       <c r="G149" s="1" t="n">
-        <v>45689.89423727514</v>
+        <v>45723.11794444444</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>45690.37403523694</v>
+        <v>45723.77766666667</v>
       </c>
       <c r="I149" s="1" t="n">
         <v>45636.46736111111</v>
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="G150" s="1" t="n">
-        <v>45686.72675277778</v>
+        <v>45714.48566111111</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>45686.7392875</v>
+        <v>45714.49819583333</v>
       </c>
       <c r="I150" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6012,10 +6012,10 @@
         </is>
       </c>
       <c r="G151" s="1" t="n">
-        <v>45686.808275</v>
+        <v>45713.42258055555</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>45686.82080972222</v>
+        <v>45713.43511527777</v>
       </c>
       <c r="I151" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BUN037</t>
+          <t>BUN009</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -6049,10 +6049,10 @@
         </is>
       </c>
       <c r="G152" s="1" t="n">
-        <v>45688.60782275</v>
+        <v>45722.91502769861</v>
       </c>
       <c r="H152" s="1" t="n">
-        <v>45689.39948941667</v>
+        <v>45723.39482566042</v>
       </c>
       <c r="I152" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6086,10 +6086,10 @@
         </is>
       </c>
       <c r="G153" s="1" t="n">
-        <v>45686.72675277778</v>
+        <v>45714.48566111111</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>45686.7392875</v>
+        <v>45714.49819583333</v>
       </c>
       <c r="I153" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="G154" s="1" t="n">
-        <v>45686.808275</v>
+        <v>45713.43712083333</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>45686.82080972222</v>
+        <v>45713.44965555555</v>
       </c>
       <c r="I154" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -6160,10 +6160,10 @@
         </is>
       </c>
       <c r="G155" s="1" t="n">
-        <v>45688.55804312208</v>
+        <v>45722.40704326778</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>45689.03784108389</v>
+        <v>45722.88684122959</v>
       </c>
       <c r="I155" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6197,10 +6197,10 @@
         </is>
       </c>
       <c r="G156" s="1" t="n">
-        <v>45686.72675277778</v>
+        <v>45714.50020138889</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>45686.7392875</v>
+        <v>45714.51273611111</v>
       </c>
       <c r="I156" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6234,10 +6234,10 @@
         </is>
       </c>
       <c r="G157" s="1" t="n">
-        <v>45686.82281527778</v>
+        <v>45713.43712083333</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>45686.83535</v>
+        <v>45713.44965555555</v>
       </c>
       <c r="I157" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN002</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -6271,10 +6271,10 @@
         </is>
       </c>
       <c r="G158" s="1" t="n">
-        <v>45688.85787367764</v>
+        <v>45722.38000576778</v>
       </c>
       <c r="H158" s="1" t="n">
-        <v>45689.33767163944</v>
+        <v>45722.85980372958</v>
       </c>
       <c r="I158" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -6308,10 +6308,10 @@
         </is>
       </c>
       <c r="G159" s="1" t="n">
-        <v>45687.01183888889</v>
+        <v>45714.50020138889</v>
       </c>
       <c r="H159" s="1" t="n">
-        <v>45687.02437361111</v>
+        <v>45714.51273611111</v>
       </c>
       <c r="I159" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MDW004</t>
+          <t>MDW002</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -6345,10 +6345,10 @@
         </is>
       </c>
       <c r="G160" s="1" t="n">
-        <v>45686.69767222222</v>
+        <v>45713.45166111111</v>
       </c>
       <c r="H160" s="1" t="n">
-        <v>45686.71020694444</v>
+        <v>45713.46419583333</v>
       </c>
       <c r="I160" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN001</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="G161" s="1" t="n">
-        <v>45689.59440671958</v>
+        <v>45721.60771715768</v>
       </c>
       <c r="H161" s="1" t="n">
-        <v>45690.07420468139</v>
+        <v>45722.08751511948</v>
       </c>
       <c r="I161" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -6419,10 +6419,10 @@
         </is>
       </c>
       <c r="G162" s="1" t="n">
-        <v>45687.01183888889</v>
+        <v>45714.50020138889</v>
       </c>
       <c r="H162" s="1" t="n">
-        <v>45687.02437361111</v>
+        <v>45714.51273611111</v>
       </c>
       <c r="I162" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6456,10 +6456,10 @@
         </is>
       </c>
       <c r="G163" s="1" t="n">
-        <v>45686.82281527778</v>
+        <v>45713.45166111111</v>
       </c>
       <c r="H163" s="1" t="n">
-        <v>45686.83535</v>
+        <v>45713.46419583333</v>
       </c>
       <c r="I163" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>BUN025</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -6493,10 +6493,10 @@
         </is>
       </c>
       <c r="G164" s="1" t="n">
-        <v>45688.98309330556</v>
+        <v>45721.14380050361</v>
       </c>
       <c r="H164" s="1" t="n">
-        <v>45689.77475997222</v>
+        <v>45721.62359846542</v>
       </c>
       <c r="I164" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -6530,10 +6530,10 @@
         </is>
       </c>
       <c r="G165" s="1" t="n">
-        <v>45687.01183888889</v>
+        <v>45714.51474166667</v>
       </c>
       <c r="H165" s="1" t="n">
-        <v>45687.02437361111</v>
+        <v>45714.52727638889</v>
       </c>
       <c r="I165" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6567,10 +6567,10 @@
         </is>
       </c>
       <c r="G166" s="1" t="n">
-        <v>45686.83735555556</v>
+        <v>45713.46620138889</v>
       </c>
       <c r="H166" s="1" t="n">
-        <v>45686.84989027778</v>
+        <v>45713.47873611111</v>
       </c>
       <c r="I166" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BUN008</t>
+          <t>BUN009</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -6604,10 +6604,10 @@
         </is>
       </c>
       <c r="G167" s="1" t="n">
-        <v>45688.57172794962</v>
+        <v>45721.87866410111</v>
       </c>
       <c r="H167" s="1" t="n">
-        <v>45689.05152591143</v>
+        <v>45722.35846206292</v>
       </c>
       <c r="I167" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6641,10 +6641,10 @@
         </is>
       </c>
       <c r="G168" s="1" t="n">
-        <v>45686.74129305556</v>
+        <v>45714.51474166667</v>
       </c>
       <c r="H168" s="1" t="n">
-        <v>45686.75382777778</v>
+        <v>45714.52727638889</v>
       </c>
       <c r="I168" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6678,10 +6678,10 @@
         </is>
       </c>
       <c r="G169" s="1" t="n">
-        <v>45686.83735555556</v>
+        <v>45713.46620138889</v>
       </c>
       <c r="H169" s="1" t="n">
-        <v>45686.84989027778</v>
+        <v>45713.47873611111</v>
       </c>
       <c r="I169" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BUN009</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="G170" s="1" t="n">
-        <v>45688.47713685111</v>
+        <v>45722.37911111111</v>
       </c>
       <c r="H170" s="1" t="n">
-        <v>45688.95693481292</v>
+        <v>45723.43466666667</v>
       </c>
       <c r="I170" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6752,10 +6752,10 @@
         </is>
       </c>
       <c r="G171" s="1" t="n">
-        <v>45686.74129305556</v>
+        <v>45714.51474166667</v>
       </c>
       <c r="H171" s="1" t="n">
-        <v>45686.75382777778</v>
+        <v>45714.52727638889</v>
       </c>
       <c r="I171" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6789,10 +6789,10 @@
         </is>
       </c>
       <c r="G172" s="1" t="n">
-        <v>45686.85189583333</v>
+        <v>45713.48074166667</v>
       </c>
       <c r="H172" s="1" t="n">
-        <v>45686.86443055556</v>
+        <v>45713.49327638889</v>
       </c>
       <c r="I172" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>BUN009</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -6826,10 +6826,10 @@
         </is>
       </c>
       <c r="G173" s="1" t="n">
-        <v>45687.44077325361</v>
+        <v>45721.23911111111</v>
       </c>
       <c r="H173" s="1" t="n">
-        <v>45687.92057121541</v>
+        <v>45722.29466666667</v>
       </c>
       <c r="I173" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="G174" s="1" t="n">
-        <v>45686.74129305556</v>
+        <v>45714.52928194444</v>
       </c>
       <c r="H174" s="1" t="n">
-        <v>45686.75382777778</v>
+        <v>45714.54181666666</v>
       </c>
       <c r="I174" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6900,10 +6900,10 @@
         </is>
       </c>
       <c r="G175" s="1" t="n">
-        <v>45686.85189583333</v>
+        <v>45713.48074166667</v>
       </c>
       <c r="H175" s="1" t="n">
-        <v>45686.86443055556</v>
+        <v>45713.49327638889</v>
       </c>
       <c r="I175" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6937,10 +6937,10 @@
         </is>
       </c>
       <c r="G176" s="1" t="n">
-        <v>45687.95895505236</v>
+        <v>45720.84230050361</v>
       </c>
       <c r="H176" s="1" t="n">
-        <v>45688.43875301417</v>
+        <v>45721.32209846542</v>
       </c>
       <c r="I176" s="1" t="n">
         <v>45636.46736111111</v>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -6974,10 +6974,10 @@
         </is>
       </c>
       <c r="G177" s="1" t="n">
-        <v>45687.02637916667</v>
+        <v>45714.52928194444</v>
       </c>
       <c r="H177" s="1" t="n">
-        <v>45687.03891388889</v>
+        <v>45714.54181666666</v>
       </c>
       <c r="I177" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="G178" s="1" t="n">
-        <v>45686.86643611111</v>
+        <v>45713.49528194444</v>
       </c>
       <c r="H178" s="1" t="n">
-        <v>45686.87897083334</v>
+        <v>45713.50781666666</v>
       </c>
       <c r="I178" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>BUN008</t>
+          <t>BUN011</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -7048,10 +7048,10 @@
         </is>
       </c>
       <c r="G179" s="1" t="n">
-        <v>45688.05354615087</v>
+        <v>45722.31701256653</v>
       </c>
       <c r="H179" s="1" t="n">
-        <v>45688.53334411267</v>
+        <v>45722.79681052834</v>
       </c>
       <c r="I179" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="G180" s="1" t="n">
-        <v>45687.02637916667</v>
+        <v>45714.52928194444</v>
       </c>
       <c r="H180" s="1" t="n">
-        <v>45687.03891388889</v>
+        <v>45714.54181666666</v>
       </c>
       <c r="I180" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7122,10 +7122,10 @@
         </is>
       </c>
       <c r="G181" s="1" t="n">
-        <v>45686.86643611111</v>
+        <v>45713.49528194444</v>
       </c>
       <c r="H181" s="1" t="n">
-        <v>45686.87897083334</v>
+        <v>45713.50781666666</v>
       </c>
       <c r="I181" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BUN009</t>
+          <t>BUN054</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -7159,10 +7159,10 @@
         </is>
       </c>
       <c r="G182" s="1" t="n">
-        <v>45689.51350044861</v>
+        <v>45722.04333333333</v>
       </c>
       <c r="H182" s="1" t="n">
-        <v>45689.99329841042</v>
+        <v>45722.835</v>
       </c>
       <c r="I182" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -7196,10 +7196,10 @@
         </is>
       </c>
       <c r="G183" s="1" t="n">
-        <v>45687.02637916667</v>
+        <v>45714.54382222222</v>
       </c>
       <c r="H183" s="1" t="n">
-        <v>45687.03891388889</v>
+        <v>45714.55635694444</v>
       </c>
       <c r="I183" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7233,10 +7233,10 @@
         </is>
       </c>
       <c r="G184" s="1" t="n">
-        <v>45686.88097638889</v>
+        <v>45713.50982222222</v>
       </c>
       <c r="H184" s="1" t="n">
-        <v>45686.89351111111</v>
+        <v>45713.52235694444</v>
       </c>
       <c r="I184" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN037</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -7270,10 +7270,10 @@
         </is>
       </c>
       <c r="G185" s="1" t="n">
-        <v>45687.00349772583</v>
+        <v>45722.5065</v>
       </c>
       <c r="H185" s="1" t="n">
-        <v>45687.48329568764</v>
+        <v>45723.29816666667</v>
       </c>
       <c r="I185" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7307,10 +7307,10 @@
         </is>
       </c>
       <c r="G186" s="1" t="n">
-        <v>45686.75583333334</v>
+        <v>45714.54382222222</v>
       </c>
       <c r="H186" s="1" t="n">
-        <v>45686.76836805556</v>
+        <v>45714.55635694444</v>
       </c>
       <c r="I186" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7344,10 +7344,10 @@
         </is>
       </c>
       <c r="G187" s="1" t="n">
-        <v>45686.88097638889</v>
+        <v>45713.50982222222</v>
       </c>
       <c r="H187" s="1" t="n">
-        <v>45686.89351111111</v>
+        <v>45713.52235694444</v>
       </c>
       <c r="I187" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -7381,10 +7381,10 @@
         </is>
       </c>
       <c r="G188" s="1" t="n">
-        <v>45687.82151008014</v>
+        <v>45722.92522506653</v>
       </c>
       <c r="H188" s="1" t="n">
-        <v>45688.30130804195</v>
+        <v>45723.40502302833</v>
       </c>
       <c r="I188" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7418,10 +7418,10 @@
         </is>
       </c>
       <c r="G189" s="1" t="n">
-        <v>45686.75583333334</v>
+        <v>45714.54382222222</v>
       </c>
       <c r="H189" s="1" t="n">
-        <v>45686.76836805556</v>
+        <v>45714.55635694444</v>
       </c>
       <c r="I189" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7455,10 +7455,10 @@
         </is>
       </c>
       <c r="G190" s="1" t="n">
-        <v>45686.89551666666</v>
+        <v>45713.5243625</v>
       </c>
       <c r="H190" s="1" t="n">
-        <v>45686.90805138889</v>
+        <v>45713.53689722222</v>
       </c>
       <c r="I190" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>BUN008</t>
+          <t>BUN009</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="G191" s="1" t="n">
-        <v>45687.53536435212</v>
+        <v>45722.39684589986</v>
       </c>
       <c r="H191" s="1" t="n">
-        <v>45688.01516231392</v>
+        <v>45722.87664386167</v>
       </c>
       <c r="I191" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7529,10 +7529,10 @@
         </is>
       </c>
       <c r="G192" s="1" t="n">
-        <v>45686.75583333334</v>
+        <v>45714.5583625</v>
       </c>
       <c r="H192" s="1" t="n">
-        <v>45686.76836805556</v>
+        <v>45714.57089722222</v>
       </c>
       <c r="I192" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7566,10 +7566,10 @@
         </is>
       </c>
       <c r="G193" s="1" t="n">
-        <v>45686.89551666666</v>
+        <v>45713.5243625</v>
       </c>
       <c r="H193" s="1" t="n">
-        <v>45686.90805138889</v>
+        <v>45713.53689722222</v>
       </c>
       <c r="I193" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BUN001</t>
+          <t>BUN011</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -7603,10 +7603,10 @@
         </is>
       </c>
       <c r="G194" s="1" t="n">
-        <v>45686.74859078139</v>
+        <v>45722.83519436527</v>
       </c>
       <c r="H194" s="1" t="n">
-        <v>45687.22838874319</v>
+        <v>45723.31499232708</v>
       </c>
       <c r="I194" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -7640,10 +7640,10 @@
         </is>
       </c>
       <c r="G195" s="1" t="n">
-        <v>45687.04091944444</v>
+        <v>45714.5583625</v>
       </c>
       <c r="H195" s="1" t="n">
-        <v>45687.05345416666</v>
+        <v>45714.57089722222</v>
       </c>
       <c r="I195" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7677,10 +7677,10 @@
         </is>
       </c>
       <c r="G196" s="1" t="n">
-        <v>45686.91005694444</v>
+        <v>45713.53890277778</v>
       </c>
       <c r="H196" s="1" t="n">
-        <v>45686.92259166667</v>
+        <v>45713.5514375</v>
       </c>
       <c r="I196" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BUN002</t>
+          <t>BUN037</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -7714,10 +7714,10 @@
         </is>
       </c>
       <c r="G197" s="1" t="n">
-        <v>45689.96407828875</v>
+        <v>45723.3615</v>
       </c>
       <c r="H197" s="1" t="n">
-        <v>45690.44387625055</v>
+        <v>45724.15316666666</v>
       </c>
       <c r="I197" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -7751,10 +7751,10 @@
         </is>
       </c>
       <c r="G198" s="1" t="n">
-        <v>45687.04091944444</v>
+        <v>45714.5583625</v>
       </c>
       <c r="H198" s="1" t="n">
-        <v>45687.05345416666</v>
+        <v>45714.57089722222</v>
       </c>
       <c r="I198" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7788,10 +7788,10 @@
         </is>
       </c>
       <c r="G199" s="1" t="n">
-        <v>45686.91005694444</v>
+        <v>45713.53890277778</v>
       </c>
       <c r="H199" s="1" t="n">
-        <v>45686.92259166667</v>
+        <v>45713.5514375</v>
       </c>
       <c r="I199" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN011</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -7825,10 +7825,10 @@
         </is>
       </c>
       <c r="G200" s="1" t="n">
-        <v>45688.03986132333</v>
+        <v>45721.28064896903</v>
       </c>
       <c r="H200" s="1" t="n">
-        <v>45688.51965928514</v>
+        <v>45721.76044693084</v>
       </c>
       <c r="I200" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -7862,10 +7862,10 @@
         </is>
       </c>
       <c r="G201" s="1" t="n">
-        <v>45687.04091944444</v>
+        <v>45714.57290277778</v>
       </c>
       <c r="H201" s="1" t="n">
-        <v>45687.05345416666</v>
+        <v>45714.5854375</v>
       </c>
       <c r="I201" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7899,10 +7899,10 @@
         </is>
       </c>
       <c r="G202" s="1" t="n">
-        <v>45686.92459722222</v>
+        <v>45713.55344305556</v>
       </c>
       <c r="H202" s="1" t="n">
-        <v>45686.93713194445</v>
+        <v>45713.56597777778</v>
       </c>
       <c r="I202" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN002</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -7936,10 +7936,10 @@
         </is>
       </c>
       <c r="G203" s="1" t="n">
-        <v>45690.11258851834</v>
+        <v>45723.41636936528</v>
       </c>
       <c r="H203" s="1" t="n">
-        <v>45690.59238648014</v>
+        <v>45723.89616732708</v>
       </c>
       <c r="I203" s="1" t="n">
         <v>45636.46736111111</v>
@@ -7973,10 +7973,10 @@
         </is>
       </c>
       <c r="G204" s="1" t="n">
-        <v>45686.77037361111</v>
+        <v>45714.57290277778</v>
       </c>
       <c r="H204" s="1" t="n">
-        <v>45686.78290833333</v>
+        <v>45714.5854375</v>
       </c>
       <c r="I204" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8010,10 +8010,10 @@
         </is>
       </c>
       <c r="G205" s="1" t="n">
-        <v>45686.92459722222</v>
+        <v>45713.55344305556</v>
       </c>
       <c r="H205" s="1" t="n">
-        <v>45686.93713194445</v>
+        <v>45713.56597777778</v>
       </c>
       <c r="I205" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8047,10 +8047,10 @@
         </is>
       </c>
       <c r="G206" s="1" t="n">
-        <v>45688.4095328925</v>
+        <v>45721.34364217028</v>
       </c>
       <c r="H206" s="1" t="n">
-        <v>45688.8893308543</v>
+        <v>45721.82344013208</v>
       </c>
       <c r="I206" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8084,10 +8084,10 @@
         </is>
       </c>
       <c r="G207" s="1" t="n">
-        <v>45686.77037361111</v>
+        <v>45714.57290277778</v>
       </c>
       <c r="H207" s="1" t="n">
-        <v>45686.78290833333</v>
+        <v>45714.5854375</v>
       </c>
       <c r="I207" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8121,10 +8121,10 @@
         </is>
       </c>
       <c r="G208" s="1" t="n">
-        <v>45686.9391375</v>
+        <v>45713.56798333333</v>
       </c>
       <c r="H208" s="1" t="n">
-        <v>45686.95167222223</v>
+        <v>45713.58051805555</v>
       </c>
       <c r="I208" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN011</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="G209" s="1" t="n">
-        <v>45689.07622492083</v>
+        <v>45721.79883076778</v>
       </c>
       <c r="H209" s="1" t="n">
-        <v>45689.55602288264</v>
+        <v>45722.27862872958</v>
       </c>
       <c r="I209" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="G210" s="1" t="n">
-        <v>45686.77037361111</v>
+        <v>45714.58744305556</v>
       </c>
       <c r="H210" s="1" t="n">
-        <v>45686.78290833333</v>
+        <v>45714.59997777778</v>
       </c>
       <c r="I210" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8232,10 +8232,10 @@
         </is>
       </c>
       <c r="G211" s="1" t="n">
-        <v>45686.9391375</v>
+        <v>45713.56798333333</v>
       </c>
       <c r="H211" s="1" t="n">
-        <v>45686.95167222223</v>
+        <v>45713.58051805555</v>
       </c>
       <c r="I211" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>BUN025</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -8269,10 +8269,10 @@
         </is>
       </c>
       <c r="G212" s="1" t="n">
-        <v>45689.83809330555</v>
+        <v>45723.44340686528</v>
       </c>
       <c r="H212" s="1" t="n">
-        <v>45690.62975997222</v>
+        <v>45723.92320482709</v>
       </c>
       <c r="I212" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="G213" s="1" t="n">
-        <v>45687.05545972222</v>
+        <v>45714.58744305556</v>
       </c>
       <c r="H213" s="1" t="n">
-        <v>45687.06799444444</v>
+        <v>45714.59997777778</v>
       </c>
       <c r="I213" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8343,10 +8343,10 @@
         </is>
       </c>
       <c r="G214" s="1" t="n">
-        <v>45686.95367777778</v>
+        <v>45713.58252361111</v>
       </c>
       <c r="H214" s="1" t="n">
-        <v>45686.9662125</v>
+        <v>45713.59505833333</v>
       </c>
       <c r="I214" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN054</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -8380,10 +8380,10 @@
         </is>
       </c>
       <c r="G215" s="1" t="n">
-        <v>45688.33969187889</v>
+        <v>45722.89833333333</v>
       </c>
       <c r="H215" s="1" t="n">
-        <v>45688.81948984069</v>
+        <v>45723.69</v>
       </c>
       <c r="I215" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -8417,10 +8417,10 @@
         </is>
       </c>
       <c r="G216" s="1" t="n">
-        <v>45687.05545972222</v>
+        <v>45714.41295972222</v>
       </c>
       <c r="H216" s="1" t="n">
-        <v>45687.06799444444</v>
+        <v>45714.42549444445</v>
       </c>
       <c r="I216" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8454,10 +8454,10 @@
         </is>
       </c>
       <c r="G217" s="1" t="n">
-        <v>45686.95367777778</v>
+        <v>45713.58252361111</v>
       </c>
       <c r="H217" s="1" t="n">
-        <v>45686.9662125</v>
+        <v>45713.59505833333</v>
       </c>
       <c r="I217" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>BUN009</t>
+          <t>BUN015</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -8491,10 +8491,10 @@
         </is>
       </c>
       <c r="G218" s="1" t="n">
-        <v>45688.99531864986</v>
+        <v>45720.98044444445</v>
       </c>
       <c r="H218" s="1" t="n">
-        <v>45689.47511661167</v>
+        <v>45721.64016666666</v>
       </c>
       <c r="I218" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MDW002</t>
+          <t>MDW004</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -8528,10 +8528,10 @@
         </is>
       </c>
       <c r="G219" s="1" t="n">
-        <v>45687.05545972222</v>
+        <v>45714.41295972222</v>
       </c>
       <c r="H219" s="1" t="n">
-        <v>45687.06799444444</v>
+        <v>45714.42549444445</v>
       </c>
       <c r="I219" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8565,10 +8565,10 @@
         </is>
       </c>
       <c r="G220" s="1" t="n">
-        <v>45686.96821805555</v>
+        <v>45713.3935</v>
       </c>
       <c r="H220" s="1" t="n">
-        <v>45686.98075277778</v>
+        <v>45713.40603472223</v>
       </c>
       <c r="I220" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>BUN008</t>
+          <t>BUN001</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -8602,10 +8602,10 @@
         </is>
       </c>
       <c r="G221" s="1" t="n">
-        <v>45687.18586941573</v>
+        <v>45721.25822222129</v>
       </c>
       <c r="H221" s="1" t="n">
-        <v>45687.49698051517</v>
+        <v>45721.56933332073</v>
       </c>
       <c r="I221" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8639,10 +8639,10 @@
         </is>
       </c>
       <c r="G222" s="1" t="n">
-        <v>45686.78420877778</v>
+        <v>45714.41295972222</v>
       </c>
       <c r="H222" s="1" t="n">
-        <v>45686.79233655555</v>
+        <v>45714.4210875</v>
       </c>
       <c r="I222" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8676,10 +8676,10 @@
         </is>
       </c>
       <c r="G223" s="1" t="n">
-        <v>45686.96821805555</v>
+        <v>45713.3935</v>
       </c>
       <c r="H223" s="1" t="n">
-        <v>45686.97634583333</v>
+        <v>45713.40162777778</v>
       </c>
       <c r="I223" s="1" t="n">
         <v>45636.46736111111</v>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -8713,10 +8713,10 @@
         </is>
       </c>
       <c r="G224" s="1" t="n">
-        <v>45686.78105555556</v>
+        <v>45721.01152777778</v>
       </c>
       <c r="H224" s="1" t="n">
-        <v>45686.82619444445</v>
+        <v>45721.05666666666</v>
       </c>
       <c r="I224" s="1" t="n">
         <v>45636.54861111111</v>
@@ -8750,10 +8750,10 @@
         </is>
       </c>
       <c r="G225" s="1" t="n">
-        <v>45686.70038333334</v>
+        <v>45713.50920719445</v>
       </c>
       <c r="H225" s="1" t="n">
-        <v>45686.70670277778</v>
+        <v>45713.51552663889</v>
       </c>
       <c r="I225" s="1" t="n">
         <v>45636.54861111111</v>
@@ -8787,10 +8787,10 @@
         </is>
       </c>
       <c r="G226" s="1" t="n">
-        <v>45686.71504444444</v>
+        <v>45713.52386830556</v>
       </c>
       <c r="H226" s="1" t="n">
-        <v>45686.72136388889</v>
+        <v>45713.53018775</v>
       </c>
       <c r="I226" s="1" t="n">
         <v>45636.54861111111</v>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN037</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -8824,10 +8824,10 @@
         </is>
       </c>
       <c r="G227" s="1" t="n">
-        <v>45686.724975</v>
+        <v>45721.3165</v>
       </c>
       <c r="H227" s="1" t="n">
-        <v>45686.77011388889</v>
+        <v>45721.85816666667</v>
       </c>
       <c r="I227" s="1" t="n">
         <v>45636.54861111111</v>
@@ -8861,10 +8861,10 @@
         </is>
       </c>
       <c r="G228" s="1" t="n">
-        <v>45686.67839166667</v>
+        <v>45713.48721552778</v>
       </c>
       <c r="H228" s="1" t="n">
-        <v>45686.68471111111</v>
+        <v>45713.49353497222</v>
       </c>
       <c r="I228" s="1" t="n">
         <v>45636.54861111111</v>
@@ -8898,10 +8898,10 @@
         </is>
       </c>
       <c r="G229" s="1" t="n">
-        <v>45686.71504444444</v>
+        <v>45713.52386830556</v>
       </c>
       <c r="H229" s="1" t="n">
-        <v>45686.72136388889</v>
+        <v>45713.53018775</v>
       </c>
       <c r="I229" s="1" t="n">
         <v>45636.54861111111</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -8935,10 +8935,10 @@
         </is>
       </c>
       <c r="G230" s="1" t="n">
-        <v>45686.97605555555</v>
+        <v>45720.91402777778</v>
       </c>
       <c r="H230" s="1" t="n">
-        <v>45687.02119444445</v>
+        <v>45720.95916666667</v>
       </c>
       <c r="I230" s="1" t="n">
         <v>45636.54861111111</v>
@@ -8972,10 +8972,10 @@
         </is>
       </c>
       <c r="G231" s="1" t="n">
-        <v>45686.67839166667</v>
+        <v>45713.48721552778</v>
       </c>
       <c r="H231" s="1" t="n">
-        <v>45686.68471111111</v>
+        <v>45713.49353497222</v>
       </c>
       <c r="I231" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9009,10 +9009,10 @@
         </is>
       </c>
       <c r="G232" s="1" t="n">
-        <v>45686.722375</v>
+        <v>45713.53119886111</v>
       </c>
       <c r="H232" s="1" t="n">
-        <v>45686.72869444444</v>
+        <v>45713.53751830556</v>
       </c>
       <c r="I232" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>BUN003</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -9046,10 +9046,10 @@
         </is>
       </c>
       <c r="G233" s="1" t="n">
-        <v>45686.76469722222</v>
+        <v>45720.81652777778</v>
       </c>
       <c r="H233" s="1" t="n">
-        <v>45687.30636388889</v>
+        <v>45720.86166666666</v>
       </c>
       <c r="I233" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9083,10 +9083,10 @@
         </is>
       </c>
       <c r="G234" s="1" t="n">
-        <v>45686.67839166667</v>
+        <v>45713.48721552778</v>
       </c>
       <c r="H234" s="1" t="n">
-        <v>45686.68471111111</v>
+        <v>45713.49353497222</v>
       </c>
       <c r="I234" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9120,10 +9120,10 @@
         </is>
       </c>
       <c r="G235" s="1" t="n">
-        <v>45686.722375</v>
+        <v>45713.53119886111</v>
       </c>
       <c r="H235" s="1" t="n">
-        <v>45686.72869444444</v>
+        <v>45713.53751830556</v>
       </c>
       <c r="I235" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9157,10 +9157,10 @@
         </is>
       </c>
       <c r="G236" s="1" t="n">
-        <v>45686.92730555555</v>
+        <v>45720.53269444445</v>
       </c>
       <c r="H236" s="1" t="n">
-        <v>45686.97244444444</v>
+        <v>45720.57783333334</v>
       </c>
       <c r="I236" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9194,10 +9194,10 @@
         </is>
       </c>
       <c r="G237" s="1" t="n">
-        <v>45686.67839166667</v>
+        <v>45713.48721552778</v>
       </c>
       <c r="H237" s="1" t="n">
-        <v>45686.68471111111</v>
+        <v>45713.49353497222</v>
       </c>
       <c r="I237" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9231,10 +9231,10 @@
         </is>
       </c>
       <c r="G238" s="1" t="n">
-        <v>45686.72970555555</v>
+        <v>45713.53852941667</v>
       </c>
       <c r="H238" s="1" t="n">
-        <v>45686.736025</v>
+        <v>45713.54484886111</v>
       </c>
       <c r="I238" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9268,10 +9268,10 @@
         </is>
       </c>
       <c r="G239" s="1" t="n">
-        <v>45687.17105555555</v>
+        <v>45720.48319444444</v>
       </c>
       <c r="H239" s="1" t="n">
-        <v>45687.21619444445</v>
+        <v>45720.52833333334</v>
       </c>
       <c r="I239" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9305,10 +9305,10 @@
         </is>
       </c>
       <c r="G240" s="1" t="n">
-        <v>45686.68572222222</v>
+        <v>45713.49454608333</v>
       </c>
       <c r="H240" s="1" t="n">
-        <v>45686.69204166667</v>
+        <v>45713.50086552778</v>
       </c>
       <c r="I240" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9342,10 +9342,10 @@
         </is>
       </c>
       <c r="G241" s="1" t="n">
-        <v>45686.72970555555</v>
+        <v>45713.53852941667</v>
       </c>
       <c r="H241" s="1" t="n">
-        <v>45686.736025</v>
+        <v>45713.54484886111</v>
       </c>
       <c r="I241" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="G242" s="1" t="n">
-        <v>45686.87855555556</v>
+        <v>45720.58144444445</v>
       </c>
       <c r="H242" s="1" t="n">
-        <v>45686.92369444444</v>
+        <v>45720.62658333333</v>
       </c>
       <c r="I242" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9416,10 +9416,10 @@
         </is>
       </c>
       <c r="G243" s="1" t="n">
-        <v>45686.68572222222</v>
+        <v>45713.49454608333</v>
       </c>
       <c r="H243" s="1" t="n">
-        <v>45686.69204166667</v>
+        <v>45713.50086552778</v>
       </c>
       <c r="I243" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9453,10 +9453,10 @@
         </is>
       </c>
       <c r="G244" s="1" t="n">
-        <v>45686.73703611111</v>
+        <v>45713.54585997222</v>
       </c>
       <c r="H244" s="1" t="n">
-        <v>45686.74335555555</v>
+        <v>45713.55217941666</v>
       </c>
       <c r="I244" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -9490,10 +9490,10 @@
         </is>
       </c>
       <c r="G245" s="1" t="n">
-        <v>45686.82980555556</v>
+        <v>45720.96277777778</v>
       </c>
       <c r="H245" s="1" t="n">
-        <v>45686.87494444445</v>
+        <v>45721.00791666667</v>
       </c>
       <c r="I245" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9527,10 +9527,10 @@
         </is>
       </c>
       <c r="G246" s="1" t="n">
-        <v>45686.68572222222</v>
+        <v>45713.49454608333</v>
       </c>
       <c r="H246" s="1" t="n">
-        <v>45686.69204166667</v>
+        <v>45713.50086552778</v>
       </c>
       <c r="I246" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9564,10 +9564,10 @@
         </is>
       </c>
       <c r="G247" s="1" t="n">
-        <v>45686.73703611111</v>
+        <v>45713.54585997222</v>
       </c>
       <c r="H247" s="1" t="n">
-        <v>45686.74335555555</v>
+        <v>45713.55217941666</v>
       </c>
       <c r="I247" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -9601,10 +9601,10 @@
         </is>
       </c>
       <c r="G248" s="1" t="n">
-        <v>45687.21980555556</v>
+        <v>45720.86527777778</v>
       </c>
       <c r="H248" s="1" t="n">
-        <v>45687.26494444445</v>
+        <v>45720.91041666667</v>
       </c>
       <c r="I248" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9638,10 +9638,10 @@
         </is>
       </c>
       <c r="G249" s="1" t="n">
-        <v>45686.68572222222</v>
+        <v>45713.49454608333</v>
       </c>
       <c r="H249" s="1" t="n">
-        <v>45686.69204166667</v>
+        <v>45713.50086552778</v>
       </c>
       <c r="I249" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9675,10 +9675,10 @@
         </is>
       </c>
       <c r="G250" s="1" t="n">
-        <v>45686.74436666667</v>
+        <v>45713.55319052777</v>
       </c>
       <c r="H250" s="1" t="n">
-        <v>45686.75068611111</v>
+        <v>45713.55950997222</v>
       </c>
       <c r="I250" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN011</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -9712,10 +9712,10 @@
         </is>
       </c>
       <c r="G251" s="1" t="n">
-        <v>45686.919975</v>
+        <v>45720.43444444444</v>
       </c>
       <c r="H251" s="1" t="n">
-        <v>45686.96511388889</v>
+        <v>45720.47958333333</v>
       </c>
       <c r="I251" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9749,10 +9749,10 @@
         </is>
       </c>
       <c r="G252" s="1" t="n">
-        <v>45686.69305277778</v>
+        <v>45713.50187663889</v>
       </c>
       <c r="H252" s="1" t="n">
-        <v>45686.69937222223</v>
+        <v>45713.50819608333</v>
       </c>
       <c r="I252" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9786,10 +9786,10 @@
         </is>
       </c>
       <c r="G253" s="1" t="n">
-        <v>45686.74436666667</v>
+        <v>45713.55319052777</v>
       </c>
       <c r="H253" s="1" t="n">
-        <v>45686.75068611111</v>
+        <v>45713.55950997222</v>
       </c>
       <c r="I253" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -9823,10 +9823,10 @@
         </is>
       </c>
       <c r="G254" s="1" t="n">
-        <v>45687.12230555555</v>
+        <v>45720.71902777778</v>
       </c>
       <c r="H254" s="1" t="n">
-        <v>45687.16744444444</v>
+        <v>45720.76416666667</v>
       </c>
       <c r="I254" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9860,10 +9860,10 @@
         </is>
       </c>
       <c r="G255" s="1" t="n">
-        <v>45686.69305277778</v>
+        <v>45713.50187663889</v>
       </c>
       <c r="H255" s="1" t="n">
-        <v>45686.69937222223</v>
+        <v>45713.50819608333</v>
       </c>
       <c r="I255" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9897,10 +9897,10 @@
         </is>
       </c>
       <c r="G256" s="1" t="n">
-        <v>45686.75169722222</v>
+        <v>45713.56052108333</v>
       </c>
       <c r="H256" s="1" t="n">
-        <v>45686.75801666667</v>
+        <v>45713.56684052778</v>
       </c>
       <c r="I256" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9914,7 +9914,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>BUN003</t>
+          <t>BUN011</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="G257" s="1" t="n">
-        <v>45687.35869722223</v>
+        <v>45720.38569444444</v>
       </c>
       <c r="H257" s="1" t="n">
-        <v>45687.90036388889</v>
+        <v>45720.43083333333</v>
       </c>
       <c r="I257" s="1" t="n">
         <v>45636.54861111111</v>
@@ -9971,10 +9971,10 @@
         </is>
       </c>
       <c r="G258" s="1" t="n">
-        <v>45686.69305277778</v>
+        <v>45713.50187663889</v>
       </c>
       <c r="H258" s="1" t="n">
-        <v>45686.69937222223</v>
+        <v>45713.50819608333</v>
       </c>
       <c r="I258" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10008,10 +10008,10 @@
         </is>
       </c>
       <c r="G259" s="1" t="n">
-        <v>45686.75169722222</v>
+        <v>45713.56052108333</v>
       </c>
       <c r="H259" s="1" t="n">
-        <v>45686.75801666667</v>
+        <v>45713.56684052778</v>
       </c>
       <c r="I259" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN011</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -10045,10 +10045,10 @@
         </is>
       </c>
       <c r="G260" s="1" t="n">
-        <v>45686.871225</v>
+        <v>45720.63019444444</v>
       </c>
       <c r="H260" s="1" t="n">
-        <v>45686.91636388889</v>
+        <v>45720.67533333333</v>
       </c>
       <c r="I260" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10082,10 +10082,10 @@
         </is>
       </c>
       <c r="G261" s="1" t="n">
-        <v>45686.69305277778</v>
+        <v>45713.50187663889</v>
       </c>
       <c r="H261" s="1" t="n">
-        <v>45686.69937222223</v>
+        <v>45713.50819608333</v>
       </c>
       <c r="I261" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10119,10 +10119,10 @@
         </is>
       </c>
       <c r="G262" s="1" t="n">
-        <v>45686.75902777778</v>
+        <v>45713.56785163889</v>
       </c>
       <c r="H262" s="1" t="n">
-        <v>45686.76534722222</v>
+        <v>45713.57417108333</v>
       </c>
       <c r="I262" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10136,7 +10136,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN011</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="G263" s="1" t="n">
-        <v>45686.773725</v>
+        <v>45720.33694444445</v>
       </c>
       <c r="H263" s="1" t="n">
-        <v>45686.81886388889</v>
+        <v>45720.38208333333</v>
       </c>
       <c r="I263" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10193,10 +10193,10 @@
         </is>
       </c>
       <c r="G264" s="1" t="n">
-        <v>45686.70771388889</v>
+        <v>45713.51653775</v>
       </c>
       <c r="H264" s="1" t="n">
-        <v>45686.71403333333</v>
+        <v>45713.52285719445</v>
       </c>
       <c r="I264" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10230,10 +10230,10 @@
         </is>
       </c>
       <c r="G265" s="1" t="n">
-        <v>45686.75902777778</v>
+        <v>45713.56785163889</v>
       </c>
       <c r="H265" s="1" t="n">
-        <v>45686.76534722222</v>
+        <v>45713.57417108333</v>
       </c>
       <c r="I265" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -10267,10 +10267,10 @@
         </is>
       </c>
       <c r="G266" s="1" t="n">
-        <v>45687.02480555556</v>
+        <v>45720.67027777778</v>
       </c>
       <c r="H266" s="1" t="n">
-        <v>45687.06994444445</v>
+        <v>45720.71541666667</v>
       </c>
       <c r="I266" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10304,10 +10304,10 @@
         </is>
       </c>
       <c r="G267" s="1" t="n">
-        <v>45686.70038333334</v>
+        <v>45713.50920719445</v>
       </c>
       <c r="H267" s="1" t="n">
-        <v>45686.70670277778</v>
+        <v>45713.51552663889</v>
       </c>
       <c r="I267" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10341,10 +10341,10 @@
         </is>
       </c>
       <c r="G268" s="1" t="n">
-        <v>45686.76635833333</v>
+        <v>45713.57518219444</v>
       </c>
       <c r="H268" s="1" t="n">
-        <v>45686.77267777778</v>
+        <v>45713.58150163889</v>
       </c>
       <c r="I268" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10358,7 +10358,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>BUN010</t>
+          <t>BUN037</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -10378,10 +10378,10 @@
         </is>
       </c>
       <c r="G269" s="1" t="n">
-        <v>45686.822475</v>
+        <v>45721.9015</v>
       </c>
       <c r="H269" s="1" t="n">
-        <v>45686.86761388889</v>
+        <v>45722.44316666666</v>
       </c>
       <c r="I269" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10415,10 +10415,10 @@
         </is>
       </c>
       <c r="G270" s="1" t="n">
-        <v>45686.70771388889</v>
+        <v>45713.51653775</v>
       </c>
       <c r="H270" s="1" t="n">
-        <v>45686.71403333333</v>
+        <v>45713.52285719445</v>
       </c>
       <c r="I270" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10452,10 +10452,10 @@
         </is>
       </c>
       <c r="G271" s="1" t="n">
-        <v>45686.76635833333</v>
+        <v>45713.57518219444</v>
       </c>
       <c r="H271" s="1" t="n">
-        <v>45686.77267777778</v>
+        <v>45713.58150163889</v>
       </c>
       <c r="I271" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>BUN003</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -10489,10 +10489,10 @@
         </is>
       </c>
       <c r="G272" s="1" t="n">
-        <v>45687.94369722222</v>
+        <v>45721.06027777777</v>
       </c>
       <c r="H272" s="1" t="n">
-        <v>45688.48536388889</v>
+        <v>45721.10541666667</v>
       </c>
       <c r="I272" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10526,10 +10526,10 @@
         </is>
       </c>
       <c r="G273" s="1" t="n">
-        <v>45686.70771388889</v>
+        <v>45713.51653775</v>
       </c>
       <c r="H273" s="1" t="n">
-        <v>45686.71403333333</v>
+        <v>45713.52285719445</v>
       </c>
       <c r="I273" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10563,10 +10563,10 @@
         </is>
       </c>
       <c r="G274" s="1" t="n">
-        <v>45686.77368888889</v>
+        <v>45713.58251275</v>
       </c>
       <c r="H274" s="1" t="n">
-        <v>45686.78000833333</v>
+        <v>45713.58883219444</v>
       </c>
       <c r="I274" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>BUN011</t>
+          <t>BUN010</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -10600,10 +10600,10 @@
         </is>
       </c>
       <c r="G275" s="1" t="n">
-        <v>45687.07355555556</v>
+        <v>45720.76777777778</v>
       </c>
       <c r="H275" s="1" t="n">
-        <v>45687.11869444444</v>
+        <v>45720.81291666667</v>
       </c>
       <c r="I275" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10637,10 +10637,10 @@
         </is>
       </c>
       <c r="G276" s="1" t="n">
-        <v>45686.70038333334</v>
+        <v>45713.50920719445</v>
       </c>
       <c r="H276" s="1" t="n">
-        <v>45686.70670277778</v>
+        <v>45713.51552663889</v>
       </c>
       <c r="I276" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10674,10 +10674,10 @@
         </is>
       </c>
       <c r="G277" s="1" t="n">
-        <v>45686.77368888889</v>
+        <v>45713.58251275</v>
       </c>
       <c r="H277" s="1" t="n">
-        <v>45686.78000833333</v>
+        <v>45713.58883219444</v>
       </c>
       <c r="I277" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10711,10 +10711,10 @@
         </is>
       </c>
       <c r="G278" s="1" t="n">
-        <v>45686.73230555555</v>
+        <v>45720.67894444444</v>
       </c>
       <c r="H278" s="1" t="n">
-        <v>45686.77744444444</v>
+        <v>45720.72408333333</v>
       </c>
       <c r="I278" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10748,10 +10748,10 @@
         </is>
       </c>
       <c r="G279" s="1" t="n">
-        <v>45686.70771388889</v>
+        <v>45713.51653775</v>
       </c>
       <c r="H279" s="1" t="n">
-        <v>45686.71403333333</v>
+        <v>45713.52285719445</v>
       </c>
       <c r="I279" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10785,10 +10785,10 @@
         </is>
       </c>
       <c r="G280" s="1" t="n">
-        <v>45686.78101944445</v>
+        <v>45713.58984330556</v>
       </c>
       <c r="H280" s="1" t="n">
-        <v>45686.78733888889</v>
+        <v>45713.59616275</v>
       </c>
       <c r="I280" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>BUN003</t>
+          <t>BUN011</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -10822,10 +10822,10 @@
         </is>
       </c>
       <c r="G281" s="1" t="n">
-        <v>45687.30703055555</v>
+        <v>45720.52838888889</v>
       </c>
       <c r="H281" s="1" t="n">
-        <v>45687.31536388889</v>
+        <v>45720.52908333333</v>
       </c>
       <c r="I281" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10859,10 +10859,10 @@
         </is>
       </c>
       <c r="G282" s="1" t="n">
-        <v>45686.70038333334</v>
+        <v>45713.50920719445</v>
       </c>
       <c r="H282" s="1" t="n">
-        <v>45686.70048055556</v>
+        <v>45713.50930441666</v>
       </c>
       <c r="I282" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10896,10 +10896,10 @@
         </is>
       </c>
       <c r="G283" s="1" t="n">
-        <v>45686.78101944445</v>
+        <v>45713.58984330556</v>
       </c>
       <c r="H283" s="1" t="n">
-        <v>45686.78111666667</v>
+        <v>45713.58994052777</v>
       </c>
       <c r="I283" s="1" t="n">
         <v>45636.54861111111</v>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -10933,10 +10933,10 @@
         </is>
       </c>
       <c r="G284" s="1" t="n">
-        <v>45688.89459377778</v>
+        <v>45721.05451805556</v>
       </c>
       <c r="H284" s="1" t="n">
-        <v>45689.17237155556</v>
+        <v>45721.33229583333</v>
       </c>
       <c r="I284" s="1" t="n">
         <v>45636.57291666666</v>
@@ -10970,10 +10970,10 @@
         </is>
       </c>
       <c r="G285" s="1" t="n">
-        <v>45687.16455183333</v>
+        <v>45714.26737222222</v>
       </c>
       <c r="H285" s="1" t="n">
-        <v>45687.17114905555</v>
+        <v>45714.27396944445</v>
       </c>
       <c r="I285" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11007,10 +11007,10 @@
         </is>
       </c>
       <c r="G286" s="1" t="n">
-        <v>45687.13394072223</v>
+        <v>45714.23676111111</v>
       </c>
       <c r="H286" s="1" t="n">
-        <v>45687.14053794445</v>
+        <v>45714.24335833333</v>
       </c>
       <c r="I286" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BUN002</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -11044,10 +11044,10 @@
         </is>
       </c>
       <c r="G287" s="1" t="n">
-        <v>45688.06959377778</v>
+        <v>45721.02748055555</v>
       </c>
       <c r="H287" s="1" t="n">
-        <v>45688.34737155555</v>
+        <v>45721.30525833333</v>
       </c>
       <c r="I287" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11081,10 +11081,10 @@
         </is>
       </c>
       <c r="G288" s="1" t="n">
-        <v>45687.16455183333</v>
+        <v>45714.26737222222</v>
       </c>
       <c r="H288" s="1" t="n">
-        <v>45687.17114905555</v>
+        <v>45714.27396944445</v>
       </c>
       <c r="I288" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11118,10 +11118,10 @@
         </is>
       </c>
       <c r="G289" s="1" t="n">
-        <v>45687.13394072223</v>
+        <v>45714.23676111111</v>
       </c>
       <c r="H289" s="1" t="n">
-        <v>45687.14053794445</v>
+        <v>45714.24335833333</v>
       </c>
       <c r="I289" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>BUN002</t>
+          <t>BUN001</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -11155,10 +11155,10 @@
         </is>
       </c>
       <c r="G290" s="1" t="n">
-        <v>45687.19337127778</v>
+        <v>45720.95555555556</v>
       </c>
       <c r="H290" s="1" t="n">
-        <v>45687.47114905556</v>
+        <v>45721.23333333333</v>
       </c>
       <c r="I290" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11192,10 +11192,10 @@
         </is>
       </c>
       <c r="G291" s="1" t="n">
-        <v>45687.17220461111</v>
+        <v>45714.21723333334</v>
       </c>
       <c r="H291" s="1" t="n">
-        <v>45687.17880183333</v>
+        <v>45714.22383055556</v>
       </c>
       <c r="I291" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11229,10 +11229,10 @@
         </is>
       </c>
       <c r="G292" s="1" t="n">
-        <v>45687.1415935</v>
+        <v>45714.24441388889</v>
       </c>
       <c r="H292" s="1" t="n">
-        <v>45687.14819072222</v>
+        <v>45714.25101111111</v>
       </c>
       <c r="I292" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>BUN002</t>
+          <t>BUN054</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="G293" s="1" t="n">
-        <v>45687.49337127778</v>
+        <v>45720.70833333334</v>
       </c>
       <c r="H293" s="1" t="n">
-        <v>45687.77114905555</v>
+        <v>45721.125</v>
       </c>
       <c r="I293" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11303,10 +11303,10 @@
         </is>
       </c>
       <c r="G294" s="1" t="n">
-        <v>45687.17220461111</v>
+        <v>45714.17437777778</v>
       </c>
       <c r="H294" s="1" t="n">
-        <v>45687.17880183333</v>
+        <v>45714.180975</v>
       </c>
       <c r="I294" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11340,10 +11340,10 @@
         </is>
       </c>
       <c r="G295" s="1" t="n">
-        <v>45687.1415935</v>
+        <v>45714.24441388889</v>
       </c>
       <c r="H295" s="1" t="n">
-        <v>45687.14819072222</v>
+        <v>45714.25101111111</v>
       </c>
       <c r="I295" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11377,10 +11377,10 @@
         </is>
       </c>
       <c r="G296" s="1" t="n">
-        <v>45688.09337127778</v>
+        <v>45720.72748055556</v>
       </c>
       <c r="H296" s="1" t="n">
-        <v>45688.37114905556</v>
+        <v>45721.00525833333</v>
       </c>
       <c r="I296" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11414,10 +11414,10 @@
         </is>
       </c>
       <c r="G297" s="1" t="n">
-        <v>45687.16455183333</v>
+        <v>45714.275025</v>
       </c>
       <c r="H297" s="1" t="n">
-        <v>45687.17114905555</v>
+        <v>45714.28162222222</v>
       </c>
       <c r="I297" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11451,10 +11451,10 @@
         </is>
       </c>
       <c r="G298" s="1" t="n">
-        <v>45687.14924627778</v>
+        <v>45714.25971944445</v>
       </c>
       <c r="H298" s="1" t="n">
-        <v>45687.1558435</v>
+        <v>45714.26631666667</v>
       </c>
       <c r="I298" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11468,7 +11468,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BUN037</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -11488,10 +11488,10 @@
         </is>
       </c>
       <c r="G299" s="1" t="n">
-        <v>45687.76959377778</v>
+        <v>45720.519</v>
       </c>
       <c r="H299" s="1" t="n">
-        <v>45688.04737155556</v>
+        <v>45720.93566666666</v>
       </c>
       <c r="I299" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11525,10 +11525,10 @@
         </is>
       </c>
       <c r="G300" s="1" t="n">
-        <v>45687.17985738889</v>
+        <v>45714.275025</v>
       </c>
       <c r="H300" s="1" t="n">
-        <v>45687.18645461111</v>
+        <v>45714.28162222222</v>
       </c>
       <c r="I300" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11562,10 +11562,10 @@
         </is>
       </c>
       <c r="G301" s="1" t="n">
-        <v>45687.14924627778</v>
+        <v>45714.25206666667</v>
       </c>
       <c r="H301" s="1" t="n">
-        <v>45687.1558435</v>
+        <v>45714.25866388889</v>
       </c>
       <c r="I301" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>BUN002</t>
+          <t>BUN001</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -11599,10 +11599,10 @@
         </is>
       </c>
       <c r="G302" s="1" t="n">
-        <v>45687.79337127778</v>
+        <v>45720.65555555555</v>
       </c>
       <c r="H302" s="1" t="n">
-        <v>45688.07114905555</v>
+        <v>45720.93333333333</v>
       </c>
       <c r="I302" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11636,10 +11636,10 @@
         </is>
       </c>
       <c r="G303" s="1" t="n">
-        <v>45687.17985738889</v>
+        <v>45714.19580555556</v>
       </c>
       <c r="H303" s="1" t="n">
-        <v>45687.18645461111</v>
+        <v>45714.20240277778</v>
       </c>
       <c r="I303" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11673,10 +11673,10 @@
         </is>
       </c>
       <c r="G304" s="1" t="n">
-        <v>45687.15689905555</v>
+        <v>45714.28267777778</v>
       </c>
       <c r="H304" s="1" t="n">
-        <v>45687.16349627778</v>
+        <v>45714.289275</v>
       </c>
       <c r="I304" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BUN001</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="G305" s="1" t="n">
-        <v>45688.36959377778</v>
+        <v>45720.35555555556</v>
       </c>
       <c r="H305" s="1" t="n">
-        <v>45688.64737155555</v>
+        <v>45720.63333333333</v>
       </c>
       <c r="I305" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11747,10 +11747,10 @@
         </is>
       </c>
       <c r="G306" s="1" t="n">
-        <v>45687.17220461111</v>
+        <v>45714.26737222222</v>
       </c>
       <c r="H306" s="1" t="n">
-        <v>45687.17880183333</v>
+        <v>45714.27396944445</v>
       </c>
       <c r="I306" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11784,10 +11784,10 @@
         </is>
       </c>
       <c r="G307" s="1" t="n">
-        <v>45687.15689905555</v>
+        <v>45714.25971944445</v>
       </c>
       <c r="H307" s="1" t="n">
-        <v>45687.16349627778</v>
+        <v>45714.26631666667</v>
       </c>
       <c r="I307" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11801,7 +11801,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BUN037</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -11821,10 +11821,10 @@
         </is>
       </c>
       <c r="G308" s="1" t="n">
-        <v>45688.66403822222</v>
+        <v>45720.96066666667</v>
       </c>
       <c r="H308" s="1" t="n">
-        <v>45688.87237155555</v>
+        <v>45721.27316666667</v>
       </c>
       <c r="I308" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11858,10 +11858,10 @@
         </is>
       </c>
       <c r="G309" s="1" t="n">
-        <v>45687.17985738889</v>
+        <v>45714.275025</v>
       </c>
       <c r="H309" s="1" t="n">
-        <v>45687.18480530556</v>
+        <v>45714.27997291667</v>
       </c>
       <c r="I309" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11895,10 +11895,10 @@
         </is>
       </c>
       <c r="G310" s="1" t="n">
-        <v>45687.18724627778</v>
+        <v>45714.25206666667</v>
       </c>
       <c r="H310" s="1" t="n">
-        <v>45687.19219419445</v>
+        <v>45714.25701458333</v>
       </c>
       <c r="I310" s="1" t="n">
         <v>45636.57291666666</v>
@@ -11912,7 +11912,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>BUN037</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -11932,10 +11932,10 @@
         </is>
       </c>
       <c r="G311" s="1" t="n">
-        <v>45686.92582275</v>
+        <v>45720.66955416666</v>
       </c>
       <c r="H311" s="1" t="n">
-        <v>45687.16748941666</v>
+        <v>45720.78434583333</v>
       </c>
       <c r="I311" s="1" t="n">
         <v>45637.91319444445</v>
@@ -11969,10 +11969,10 @@
         </is>
       </c>
       <c r="G312" s="1" t="n">
-        <v>45686.89712886111</v>
+        <v>45713.34461111111</v>
       </c>
       <c r="H312" s="1" t="n">
-        <v>45686.89994830555</v>
+        <v>45713.34743055556</v>
       </c>
       <c r="I312" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12006,10 +12006,10 @@
         </is>
       </c>
       <c r="G313" s="1" t="n">
-        <v>45686.90366997222</v>
+        <v>45713.35115222223</v>
       </c>
       <c r="H313" s="1" t="n">
-        <v>45686.90648941667</v>
+        <v>45713.35397166666</v>
       </c>
       <c r="I313" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>BUN009</t>
+          <t>BUN025</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="G314" s="1" t="n">
-        <v>45686.91567275</v>
+        <v>45721.89755555556</v>
       </c>
       <c r="H314" s="1" t="n">
-        <v>45687.03046441667</v>
+        <v>45722.05866666666</v>
       </c>
       <c r="I314" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12080,10 +12080,10 @@
         </is>
       </c>
       <c r="G315" s="1" t="n">
-        <v>45686.88731719444</v>
+        <v>45713.33479944444</v>
       </c>
       <c r="H315" s="1" t="n">
-        <v>45686.89013663889</v>
+        <v>45713.33761888889</v>
       </c>
       <c r="I315" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12117,10 +12117,10 @@
         </is>
       </c>
       <c r="G316" s="1" t="n">
-        <v>45686.90366997222</v>
+        <v>45713.35115222223</v>
       </c>
       <c r="H316" s="1" t="n">
-        <v>45686.90648941667</v>
+        <v>45713.35397166666</v>
       </c>
       <c r="I316" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12134,7 +12134,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BUN002</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -12154,10 +12154,10 @@
         </is>
       </c>
       <c r="G317" s="1" t="n">
-        <v>45687.86360180555</v>
+        <v>45720.34251666666</v>
       </c>
       <c r="H317" s="1" t="n">
-        <v>45688.10526847222</v>
+        <v>45720.45730833333</v>
       </c>
       <c r="I317" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12191,10 +12191,10 @@
         </is>
       </c>
       <c r="G318" s="1" t="n">
-        <v>45686.88731719444</v>
+        <v>45713.33479944444</v>
       </c>
       <c r="H318" s="1" t="n">
-        <v>45686.89013663889</v>
+        <v>45713.33761888889</v>
       </c>
       <c r="I318" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12228,10 +12228,10 @@
         </is>
       </c>
       <c r="G319" s="1" t="n">
-        <v>45686.90694052778</v>
+        <v>45713.35442277777</v>
       </c>
       <c r="H319" s="1" t="n">
-        <v>45686.90975997222</v>
+        <v>45713.35724222222</v>
       </c>
       <c r="I319" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>BUN025</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -12265,10 +12265,10 @@
         </is>
       </c>
       <c r="G320" s="1" t="n">
-        <v>45687.38164886111</v>
+        <v>45720.34251666666</v>
       </c>
       <c r="H320" s="1" t="n">
-        <v>45687.54275997222</v>
+        <v>45720.45730833333</v>
       </c>
       <c r="I320" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12302,10 +12302,10 @@
         </is>
       </c>
       <c r="G321" s="1" t="n">
-        <v>45686.88731719444</v>
+        <v>45713.33479944444</v>
       </c>
       <c r="H321" s="1" t="n">
-        <v>45686.89013663889</v>
+        <v>45713.33761888889</v>
       </c>
       <c r="I321" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12339,10 +12339,10 @@
         </is>
       </c>
       <c r="G322" s="1" t="n">
-        <v>45686.90694052778</v>
+        <v>45713.35442277777</v>
       </c>
       <c r="H322" s="1" t="n">
-        <v>45686.90975997222</v>
+        <v>45713.35724222222</v>
       </c>
       <c r="I322" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12376,10 +12376,10 @@
         </is>
       </c>
       <c r="G323" s="1" t="n">
-        <v>45687.44782275</v>
+        <v>45719.722</v>
       </c>
       <c r="H323" s="1" t="n">
-        <v>45687.68948941667</v>
+        <v>45719.96366666667</v>
       </c>
       <c r="I323" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12413,10 +12413,10 @@
         </is>
       </c>
       <c r="G324" s="1" t="n">
-        <v>45686.88731719444</v>
+        <v>45713.33479944444</v>
       </c>
       <c r="H324" s="1" t="n">
-        <v>45686.89013663889</v>
+        <v>45713.33761888889</v>
       </c>
       <c r="I324" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12450,10 +12450,10 @@
         </is>
       </c>
       <c r="G325" s="1" t="n">
-        <v>45686.91021108333</v>
+        <v>45713.35769333333</v>
       </c>
       <c r="H325" s="1" t="n">
-        <v>45686.91303052778</v>
+        <v>45713.36051277778</v>
       </c>
       <c r="I325" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12467,7 +12467,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>BUN037</t>
+          <t>BUN025</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -12487,10 +12487,10 @@
         </is>
       </c>
       <c r="G326" s="1" t="n">
-        <v>45687.18682275</v>
+        <v>45721.72355555555</v>
       </c>
       <c r="H326" s="1" t="n">
-        <v>45687.42848941666</v>
+        <v>45721.88466666666</v>
       </c>
       <c r="I326" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12524,10 +12524,10 @@
         </is>
       </c>
       <c r="G327" s="1" t="n">
-        <v>45686.89058775</v>
+        <v>45713.33807</v>
       </c>
       <c r="H327" s="1" t="n">
-        <v>45686.89340719445</v>
+        <v>45713.34088944444</v>
       </c>
       <c r="I327" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12561,10 +12561,10 @@
         </is>
       </c>
       <c r="G328" s="1" t="n">
-        <v>45686.91021108333</v>
+        <v>45713.35769333333</v>
       </c>
       <c r="H328" s="1" t="n">
-        <v>45686.91303052778</v>
+        <v>45713.36051277778</v>
       </c>
       <c r="I328" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>BUN003</t>
+          <t>BUN025</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -12598,10 +12598,10 @@
         </is>
       </c>
       <c r="G329" s="1" t="n">
-        <v>45688.51114166667</v>
+        <v>45721.54955555555</v>
       </c>
       <c r="H329" s="1" t="n">
-        <v>45688.83336388889</v>
+        <v>45721.71066666667</v>
       </c>
       <c r="I329" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12635,10 +12635,10 @@
         </is>
       </c>
       <c r="G330" s="1" t="n">
-        <v>45686.89058775</v>
+        <v>45713.33807</v>
       </c>
       <c r="H330" s="1" t="n">
-        <v>45686.89340719445</v>
+        <v>45713.34088944444</v>
       </c>
       <c r="I330" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12672,10 +12672,10 @@
         </is>
       </c>
       <c r="G331" s="1" t="n">
-        <v>45686.91348163889</v>
+        <v>45713.36096388889</v>
       </c>
       <c r="H331" s="1" t="n">
-        <v>45686.91630108334</v>
+        <v>45713.36378333333</v>
       </c>
       <c r="I331" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12689,7 +12689,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>BUN002</t>
+          <t>BUN025</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -12709,10 +12709,10 @@
         </is>
       </c>
       <c r="G332" s="1" t="n">
-        <v>45686.91894330556</v>
+        <v>45720.67955555556</v>
       </c>
       <c r="H332" s="1" t="n">
-        <v>45687.03373497222</v>
+        <v>45720.84066666666</v>
       </c>
       <c r="I332" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12746,10 +12746,10 @@
         </is>
       </c>
       <c r="G333" s="1" t="n">
-        <v>45686.89058775</v>
+        <v>45713.33807</v>
       </c>
       <c r="H333" s="1" t="n">
-        <v>45686.89340719445</v>
+        <v>45713.34088944444</v>
       </c>
       <c r="I333" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12783,10 +12783,10 @@
         </is>
       </c>
       <c r="G334" s="1" t="n">
-        <v>45686.91348163889</v>
+        <v>45713.36096388889</v>
       </c>
       <c r="H334" s="1" t="n">
-        <v>45686.91630108334</v>
+        <v>45713.36378333333</v>
       </c>
       <c r="I334" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12800,7 +12800,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>BUN025</t>
+          <t>BUN015</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -12820,10 +12820,10 @@
         </is>
       </c>
       <c r="G335" s="1" t="n">
-        <v>45687.72964886111</v>
+        <v>45720.686</v>
       </c>
       <c r="H335" s="1" t="n">
-        <v>45687.89075997222</v>
+        <v>45720.92766666667</v>
       </c>
       <c r="I335" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12857,10 +12857,10 @@
         </is>
       </c>
       <c r="G336" s="1" t="n">
-        <v>45686.89058775</v>
+        <v>45713.33807</v>
       </c>
       <c r="H336" s="1" t="n">
-        <v>45686.89340719445</v>
+        <v>45713.34088944444</v>
       </c>
       <c r="I336" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12894,10 +12894,10 @@
         </is>
       </c>
       <c r="G337" s="1" t="n">
-        <v>45686.91675219445</v>
+        <v>45713.36423444445</v>
       </c>
       <c r="H337" s="1" t="n">
-        <v>45686.91957163889</v>
+        <v>45713.36705388889</v>
       </c>
       <c r="I337" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12911,7 +12911,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>BUN025</t>
+          <t>BUN002</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -12931,10 +12931,10 @@
         </is>
       </c>
       <c r="G338" s="1" t="n">
-        <v>45687.90364886111</v>
+        <v>45720.59046666667</v>
       </c>
       <c r="H338" s="1" t="n">
-        <v>45688.06475997222</v>
+        <v>45720.70525833334</v>
       </c>
       <c r="I338" s="1" t="n">
         <v>45637.91319444445</v>
@@ -12968,10 +12968,10 @@
         </is>
       </c>
       <c r="G339" s="1" t="n">
-        <v>45686.89385830556</v>
+        <v>45713.34134055555</v>
       </c>
       <c r="H339" s="1" t="n">
-        <v>45686.89667775</v>
+        <v>45713.34416</v>
       </c>
       <c r="I339" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13005,10 +13005,10 @@
         </is>
       </c>
       <c r="G340" s="1" t="n">
-        <v>45686.91675219445</v>
+        <v>45713.36423444445</v>
       </c>
       <c r="H340" s="1" t="n">
-        <v>45686.91957163889</v>
+        <v>45713.36705388889</v>
       </c>
       <c r="I340" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>BUN008</t>
+          <t>BUN002</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -13042,10 +13042,10 @@
         </is>
       </c>
       <c r="G341" s="1" t="n">
-        <v>45687.04618886111</v>
+        <v>45720.46649166667</v>
       </c>
       <c r="H341" s="1" t="n">
-        <v>45687.16098052778</v>
+        <v>45720.58128333333</v>
       </c>
       <c r="I341" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13079,10 +13079,10 @@
         </is>
       </c>
       <c r="G342" s="1" t="n">
-        <v>45686.89385830556</v>
+        <v>45713.34134055555</v>
       </c>
       <c r="H342" s="1" t="n">
-        <v>45686.89667775</v>
+        <v>45713.34416</v>
       </c>
       <c r="I342" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13116,10 +13116,10 @@
         </is>
       </c>
       <c r="G343" s="1" t="n">
-        <v>45686.92002275</v>
+        <v>45713.367505</v>
       </c>
       <c r="H343" s="1" t="n">
-        <v>45686.92284219444</v>
+        <v>45713.37032444445</v>
       </c>
       <c r="I343" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -13153,10 +13153,10 @@
         </is>
       </c>
       <c r="G344" s="1" t="n">
-        <v>45687.60260180556</v>
+        <v>45720.46649166667</v>
       </c>
       <c r="H344" s="1" t="n">
-        <v>45687.84426847222</v>
+        <v>45720.58128333333</v>
       </c>
       <c r="I344" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13190,10 +13190,10 @@
         </is>
       </c>
       <c r="G345" s="1" t="n">
-        <v>45686.89385830556</v>
+        <v>45713.34134055555</v>
       </c>
       <c r="H345" s="1" t="n">
-        <v>45686.89667775</v>
+        <v>45713.34416</v>
       </c>
       <c r="I345" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13227,10 +13227,10 @@
         </is>
       </c>
       <c r="G346" s="1" t="n">
-        <v>45686.92002275</v>
+        <v>45713.367505</v>
       </c>
       <c r="H346" s="1" t="n">
-        <v>45686.92284219444</v>
+        <v>45713.37032444445</v>
       </c>
       <c r="I346" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13264,10 +13264,10 @@
         </is>
       </c>
       <c r="G347" s="1" t="n">
-        <v>45687.20764886111</v>
+        <v>45720.85355555556</v>
       </c>
       <c r="H347" s="1" t="n">
-        <v>45687.36875997223</v>
+        <v>45721.01466666667</v>
       </c>
       <c r="I347" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13301,10 +13301,10 @@
         </is>
       </c>
       <c r="G348" s="1" t="n">
-        <v>45686.89385830556</v>
+        <v>45713.34134055555</v>
       </c>
       <c r="H348" s="1" t="n">
-        <v>45686.89667775</v>
+        <v>45713.34416</v>
       </c>
       <c r="I348" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13338,10 +13338,10 @@
         </is>
       </c>
       <c r="G349" s="1" t="n">
-        <v>45686.92329330555</v>
+        <v>45713.37077555556</v>
       </c>
       <c r="H349" s="1" t="n">
-        <v>45686.92611275</v>
+        <v>45713.373595</v>
       </c>
       <c r="I349" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>BUN002</t>
+          <t>BUN025</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -13375,10 +13375,10 @@
         </is>
       </c>
       <c r="G350" s="1" t="n">
-        <v>45687.04291830555</v>
+        <v>45721.02755555556</v>
       </c>
       <c r="H350" s="1" t="n">
-        <v>45687.15770997222</v>
+        <v>45721.18866666667</v>
       </c>
       <c r="I350" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13412,10 +13412,10 @@
         </is>
       </c>
       <c r="G351" s="1" t="n">
-        <v>45686.89712886111</v>
+        <v>45713.34461111111</v>
       </c>
       <c r="H351" s="1" t="n">
-        <v>45686.89994830555</v>
+        <v>45713.34743055556</v>
       </c>
       <c r="I351" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13449,10 +13449,10 @@
         </is>
       </c>
       <c r="G352" s="1" t="n">
-        <v>45686.92329330555</v>
+        <v>45713.37077555556</v>
       </c>
       <c r="H352" s="1" t="n">
-        <v>45686.92611275</v>
+        <v>45713.373595</v>
       </c>
       <c r="I352" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>BUN025</t>
+          <t>BUN037</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="G353" s="1" t="n">
-        <v>45687.03364886111</v>
+        <v>45719.983</v>
       </c>
       <c r="H353" s="1" t="n">
-        <v>45687.19475997222</v>
+        <v>45720.22466666667</v>
       </c>
       <c r="I353" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13523,10 +13523,10 @@
         </is>
       </c>
       <c r="G354" s="1" t="n">
-        <v>45686.90039941666</v>
+        <v>45713.34788166667</v>
       </c>
       <c r="H354" s="1" t="n">
-        <v>45686.90321886111</v>
+        <v>45713.35070111111</v>
       </c>
       <c r="I354" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13560,10 +13560,10 @@
         </is>
       </c>
       <c r="G355" s="1" t="n">
-        <v>45686.92656386111</v>
+        <v>45713.37404611111</v>
       </c>
       <c r="H355" s="1" t="n">
-        <v>45686.92938330556</v>
+        <v>45713.37686555555</v>
       </c>
       <c r="I355" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>BUN025</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -13597,10 +13597,10 @@
         </is>
       </c>
       <c r="G356" s="1" t="n">
-        <v>45687.55564886111</v>
+        <v>45720.79352916667</v>
       </c>
       <c r="H356" s="1" t="n">
-        <v>45687.71675997222</v>
+        <v>45720.90832083333</v>
       </c>
       <c r="I356" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13634,10 +13634,10 @@
         </is>
       </c>
       <c r="G357" s="1" t="n">
-        <v>45686.93637552778</v>
+        <v>45713.38385777778</v>
       </c>
       <c r="H357" s="1" t="n">
-        <v>45686.93919497222</v>
+        <v>45713.38667722222</v>
       </c>
       <c r="I357" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13671,10 +13671,10 @@
         </is>
       </c>
       <c r="G358" s="1" t="n">
-        <v>45686.92983441667</v>
+        <v>45713.37731666667</v>
       </c>
       <c r="H358" s="1" t="n">
-        <v>45686.93265386111</v>
+        <v>45713.38013611111</v>
       </c>
       <c r="I358" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>BUN009</t>
+          <t>BUN037</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -13708,10 +13708,10 @@
         </is>
       </c>
       <c r="G359" s="1" t="n">
-        <v>45687.16362275</v>
+        <v>45720.244</v>
       </c>
       <c r="H359" s="1" t="n">
-        <v>45687.27841441667</v>
+        <v>45720.48566666667</v>
       </c>
       <c r="I359" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13745,10 +13745,10 @@
         </is>
       </c>
       <c r="G360" s="1" t="n">
-        <v>45686.90039941666</v>
+        <v>45713.34788166667</v>
       </c>
       <c r="H360" s="1" t="n">
-        <v>45686.90321886111</v>
+        <v>45713.35070111111</v>
       </c>
       <c r="I360" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13782,10 +13782,10 @@
         </is>
       </c>
       <c r="G361" s="1" t="n">
-        <v>45686.93310497222</v>
+        <v>45713.38058722222</v>
       </c>
       <c r="H361" s="1" t="n">
-        <v>45686.93592441667</v>
+        <v>45713.38340666667</v>
       </c>
       <c r="I361" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13799,7 +13799,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>BUN008</t>
+          <t>BUN025</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -13819,10 +13819,10 @@
         </is>
       </c>
       <c r="G362" s="1" t="n">
-        <v>45686.92221386111</v>
+        <v>45721.20155555556</v>
       </c>
       <c r="H362" s="1" t="n">
-        <v>45687.03700552777</v>
+        <v>45721.36266666667</v>
       </c>
       <c r="I362" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13856,10 +13856,10 @@
         </is>
       </c>
       <c r="G363" s="1" t="n">
-        <v>45686.90039941666</v>
+        <v>45713.34788166667</v>
       </c>
       <c r="H363" s="1" t="n">
-        <v>45686.90321886111</v>
+        <v>45713.35070111111</v>
       </c>
       <c r="I363" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13893,10 +13893,10 @@
         </is>
       </c>
       <c r="G364" s="1" t="n">
-        <v>45686.93310497222</v>
+        <v>45713.38058722222</v>
       </c>
       <c r="H364" s="1" t="n">
-        <v>45686.93592441667</v>
+        <v>45713.38340666667</v>
       </c>
       <c r="I364" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>BUN009</t>
+          <t>BUN025</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -13930,10 +13930,10 @@
         </is>
       </c>
       <c r="G365" s="1" t="n">
-        <v>45687.03964775</v>
+        <v>45721.37555555555</v>
       </c>
       <c r="H365" s="1" t="n">
-        <v>45687.15443941666</v>
+        <v>45721.53666666667</v>
       </c>
       <c r="I365" s="1" t="n">
         <v>45637.91319444445</v>
@@ -13967,10 +13967,10 @@
         </is>
       </c>
       <c r="G366" s="1" t="n">
-        <v>45686.89712886111</v>
+        <v>45713.34461111111</v>
       </c>
       <c r="H366" s="1" t="n">
-        <v>45686.89994830555</v>
+        <v>45713.34743055556</v>
       </c>
       <c r="I366" s="1" t="n">
         <v>45637.91319444445</v>
@@ -14004,10 +14004,10 @@
         </is>
       </c>
       <c r="G367" s="1" t="n">
-        <v>45686.93637552778</v>
+        <v>45713.38385777778</v>
       </c>
       <c r="H367" s="1" t="n">
-        <v>45686.93919497222</v>
+        <v>45713.38667722222</v>
       </c>
       <c r="I367" s="1" t="n">
         <v>45637.91319444445</v>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>BUN009</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -14041,10 +14041,10 @@
         </is>
       </c>
       <c r="G368" s="1" t="n">
-        <v>45687.28759775</v>
+        <v>45720.91750416667</v>
       </c>
       <c r="H368" s="1" t="n">
-        <v>45687.40238941667</v>
+        <v>45721.03229583333</v>
       </c>
       <c r="I368" s="1" t="n">
         <v>45637.91319444445</v>
@@ -14078,10 +14078,10 @@
         </is>
       </c>
       <c r="G369" s="1" t="n">
-        <v>45686.90039941666</v>
+        <v>45713.34788166667</v>
       </c>
       <c r="H369" s="1" t="n">
-        <v>45686.90321886111</v>
+        <v>45713.35070111111</v>
       </c>
       <c r="I369" s="1" t="n">
         <v>45637.91319444445</v>
@@ -14115,10 +14115,10 @@
         </is>
       </c>
       <c r="G370" s="1" t="n">
-        <v>45686.92656386111</v>
+        <v>45713.37404611111</v>
       </c>
       <c r="H370" s="1" t="n">
-        <v>45686.92938330556</v>
+        <v>45713.37686555555</v>
       </c>
       <c r="I370" s="1" t="n">
         <v>45637.91319444445</v>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>BUN025</t>
+          <t>BUN008</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -14152,10 +14152,10 @@
         </is>
       </c>
       <c r="G371" s="1" t="n">
-        <v>45686.91798219444</v>
+        <v>45720.58714166666</v>
       </c>
       <c r="H371" s="1" t="n">
-        <v>45687.02075997222</v>
+        <v>45720.66037083334</v>
       </c>
       <c r="I371" s="1" t="n">
         <v>45637.91319444445</v>
@@ -14189,10 +14189,10 @@
         </is>
       </c>
       <c r="G372" s="1" t="n">
-        <v>45686.89712886111</v>
+        <v>45713.34461111111</v>
       </c>
       <c r="H372" s="1" t="n">
-        <v>45686.89892747222</v>
+        <v>45713.34640972222</v>
       </c>
       <c r="I372" s="1" t="n">
         <v>45637.91319444445</v>
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="G373" s="1" t="n">
-        <v>45686.92983441667</v>
+        <v>45713.37731666667</v>
       </c>
       <c r="H373" s="1" t="n">
-        <v>45686.93163302778</v>
+        <v>45713.37911527778</v>
       </c>
       <c r="I373" s="1" t="n">
         <v>45637.91319444445</v>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>BUN015</t>
+          <t>BUN009</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -14263,10 +14263,10 @@
         </is>
       </c>
       <c r="G374" s="1" t="n">
-        <v>45686.94620997222</v>
+        <v>45720.72891666667</v>
       </c>
       <c r="H374" s="1" t="n">
-        <v>45687.02120997222</v>
+        <v>45720.80391666666</v>
       </c>
       <c r="I374" s="1" t="n">
         <v>45638.76597222222</v>
@@ -14300,10 +14300,10 @@
         </is>
       </c>
       <c r="G375" s="1" t="n">
-        <v>45686.93933497222</v>
+        <v>45713.33347333333</v>
       </c>
       <c r="H375" s="1" t="n">
-        <v>45686.94020997222</v>
+        <v>45713.33434833333</v>
       </c>
       <c r="I375" s="1" t="n">
         <v>45638.76597222222</v>
@@ -14337,10 +14337,10 @@
         </is>
       </c>
       <c r="G376" s="1" t="n">
-        <v>45686.93933497222</v>
+        <v>45713.33347333333</v>
       </c>
       <c r="H376" s="1" t="n">
-        <v>45686.94020997222</v>
+        <v>45713.33434833333</v>
       </c>
       <c r="I376" s="1" t="n">
         <v>45638.76597222222</v>
@@ -14374,10 +14374,10 @@
         </is>
       </c>
       <c r="G377" s="1" t="n">
-        <v>45686.85544377778</v>
+        <v>45720.28392222222</v>
       </c>
       <c r="H377" s="1" t="n">
-        <v>45686.90482155555</v>
+        <v>45720.3333</v>
       </c>
       <c r="I377" s="1" t="n">
         <v>45638.84375</v>
@@ -14411,10 +14411,10 @@
         </is>
       </c>
       <c r="G378" s="1" t="n">
-        <v>45686.79119666667</v>
+        <v>45713.45352219445</v>
       </c>
       <c r="H378" s="1" t="n">
-        <v>45686.79275222222</v>
+        <v>45713.45507775</v>
       </c>
       <c r="I378" s="1" t="n">
         <v>45638.84375</v>
@@ -14448,10 +14448,10 @@
         </is>
       </c>
       <c r="G379" s="1" t="n">
-        <v>45686.79300111111</v>
+        <v>45713.45532663889</v>
       </c>
       <c r="H379" s="1" t="n">
-        <v>45686.79455666667</v>
+        <v>45713.45688219444</v>
       </c>
       <c r="I379" s="1" t="n">
         <v>45638.84375</v>
@@ -14485,10 +14485,10 @@
         </is>
       </c>
       <c r="G380" s="1" t="n">
-        <v>45686.79300111111</v>
+        <v>45713.45532663889</v>
       </c>
       <c r="H380" s="1" t="n">
-        <v>45686.79455666667</v>
+        <v>45713.45688219444</v>
       </c>
       <c r="I380" s="1" t="n">
         <v>45638.84375</v>
@@ -14522,10 +14522,10 @@
         </is>
       </c>
       <c r="G381" s="1" t="n">
-        <v>45686.79480555555</v>
+        <v>45713.45713108333</v>
       </c>
       <c r="H381" s="1" t="n">
-        <v>45686.79636111111</v>
+        <v>45713.45868663889</v>
       </c>
       <c r="I381" s="1" t="n">
         <v>45638.84375</v>
@@ -14559,10 +14559,10 @@
         </is>
       </c>
       <c r="G382" s="1" t="n">
-        <v>45687.63133377778</v>
+        <v>45720.11060622222</v>
       </c>
       <c r="H382" s="1" t="n">
-        <v>45687.68071155556</v>
+        <v>45720.159984</v>
       </c>
       <c r="I382" s="1" t="n">
         <v>45638.84375</v>
@@ -14596,10 +14596,10 @@
         </is>
       </c>
       <c r="G383" s="1" t="n">
-        <v>45686.78939222222</v>
+        <v>45713.45171775</v>
       </c>
       <c r="H383" s="1" t="n">
-        <v>45686.79094777778</v>
+        <v>45713.45327330555</v>
       </c>
       <c r="I383" s="1" t="n">
         <v>45638.84375</v>
@@ -14633,10 +14633,10 @@
         </is>
       </c>
       <c r="G384" s="1" t="n">
-        <v>45686.79480555555</v>
+        <v>45713.45713108333</v>
       </c>
       <c r="H384" s="1" t="n">
-        <v>45686.79636111111</v>
+        <v>45713.45868663889</v>
       </c>
       <c r="I384" s="1" t="n">
         <v>45638.84375</v>
@@ -14670,10 +14670,10 @@
         </is>
       </c>
       <c r="G385" s="1" t="n">
-        <v>45686.79661</v>
+        <v>45713.45893552778</v>
       </c>
       <c r="H385" s="1" t="n">
-        <v>45686.79816555556</v>
+        <v>45713.46049108334</v>
       </c>
       <c r="I385" s="1" t="n">
         <v>45638.84375</v>
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="G386" s="1" t="n">
-        <v>45686.79661</v>
+        <v>45713.45893552778</v>
       </c>
       <c r="H386" s="1" t="n">
-        <v>45686.79816555556</v>
+        <v>45713.46049108334</v>
       </c>
       <c r="I386" s="1" t="n">
         <v>45638.84375</v>
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -14744,10 +14744,10 @@
         </is>
       </c>
       <c r="G387" s="1" t="n">
-        <v>45687.01542777778</v>
+        <v>45721.02133333333</v>
       </c>
       <c r="H387" s="1" t="n">
-        <v>45687.06480555556</v>
+        <v>45721.15466666667</v>
       </c>
       <c r="I387" s="1" t="n">
         <v>45638.84375</v>
@@ -14781,10 +14781,10 @@
         </is>
       </c>
       <c r="G388" s="1" t="n">
-        <v>45686.78758777778</v>
+        <v>45713.44991330556</v>
       </c>
       <c r="H388" s="1" t="n">
-        <v>45686.78914333334</v>
+        <v>45713.45146886111</v>
       </c>
       <c r="I388" s="1" t="n">
         <v>45638.84375</v>
@@ -14818,10 +14818,10 @@
         </is>
       </c>
       <c r="G389" s="1" t="n">
-        <v>45686.79841444444</v>
+        <v>45713.46073997222</v>
       </c>
       <c r="H389" s="1" t="n">
-        <v>45686.79997</v>
+        <v>45713.46229552778</v>
       </c>
       <c r="I389" s="1" t="n">
         <v>45638.84375</v>
@@ -14855,10 +14855,10 @@
         </is>
       </c>
       <c r="G390" s="1" t="n">
-        <v>45686.79841444444</v>
+        <v>45713.46073997222</v>
       </c>
       <c r="H390" s="1" t="n">
-        <v>45686.79997</v>
+        <v>45713.46229552778</v>
       </c>
       <c r="I390" s="1" t="n">
         <v>45638.84375</v>
@@ -14892,10 +14892,10 @@
         </is>
       </c>
       <c r="G391" s="1" t="n">
-        <v>45686.80021888889</v>
+        <v>45713.46254441667</v>
       </c>
       <c r="H391" s="1" t="n">
-        <v>45686.80177444444</v>
+        <v>45713.46409997223</v>
       </c>
       <c r="I391" s="1" t="n">
         <v>45638.84375</v>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -14929,10 +14929,10 @@
         </is>
       </c>
       <c r="G392" s="1" t="n">
-        <v>45686.80883222222</v>
+        <v>45720.05727822222</v>
       </c>
       <c r="H392" s="1" t="n">
-        <v>45686.94216555556</v>
+        <v>45720.106656</v>
       </c>
       <c r="I392" s="1" t="n">
         <v>45638.84375</v>
@@ -14966,10 +14966,10 @@
         </is>
       </c>
       <c r="G393" s="1" t="n">
-        <v>45686.78758777778</v>
+        <v>45713.44991330556</v>
       </c>
       <c r="H393" s="1" t="n">
-        <v>45686.78914333334</v>
+        <v>45713.45146886111</v>
       </c>
       <c r="I393" s="1" t="n">
         <v>45638.84375</v>
@@ -15003,10 +15003,10 @@
         </is>
       </c>
       <c r="G394" s="1" t="n">
-        <v>45686.80021888889</v>
+        <v>45713.46254441667</v>
       </c>
       <c r="H394" s="1" t="n">
-        <v>45686.80177444444</v>
+        <v>45713.46409997223</v>
       </c>
       <c r="I394" s="1" t="n">
         <v>45638.84375</v>
@@ -15040,10 +15040,10 @@
         </is>
       </c>
       <c r="G395" s="1" t="n">
-        <v>45686.80202333333</v>
+        <v>45713.46434886111</v>
       </c>
       <c r="H395" s="1" t="n">
-        <v>45686.80357888889</v>
+        <v>45713.46590441667</v>
       </c>
       <c r="I395" s="1" t="n">
         <v>45638.84375</v>
@@ -15077,10 +15077,10 @@
         </is>
       </c>
       <c r="G396" s="1" t="n">
-        <v>45686.80202333333</v>
+        <v>45713.46434886111</v>
       </c>
       <c r="H396" s="1" t="n">
-        <v>45686.80357888889</v>
+        <v>45713.46590441667</v>
       </c>
       <c r="I396" s="1" t="n">
         <v>45638.84375</v>
@@ -15114,10 +15114,10 @@
         </is>
       </c>
       <c r="G397" s="1" t="n">
-        <v>45687.68466177778</v>
+        <v>45720.33725022222</v>
       </c>
       <c r="H397" s="1" t="n">
-        <v>45687.73403955556</v>
+        <v>45720.386628</v>
       </c>
       <c r="I397" s="1" t="n">
         <v>45638.84375</v>
@@ -15151,10 +15151,10 @@
         </is>
       </c>
       <c r="G398" s="1" t="n">
-        <v>45686.78758777778</v>
+        <v>45713.44991330556</v>
       </c>
       <c r="H398" s="1" t="n">
-        <v>45686.78914333334</v>
+        <v>45713.45146886111</v>
       </c>
       <c r="I398" s="1" t="n">
         <v>45638.84375</v>
@@ -15188,10 +15188,10 @@
         </is>
       </c>
       <c r="G399" s="1" t="n">
-        <v>45686.80382777778</v>
+        <v>45713.46615330556</v>
       </c>
       <c r="H399" s="1" t="n">
-        <v>45686.80538333333</v>
+        <v>45713.46770886111</v>
       </c>
       <c r="I399" s="1" t="n">
         <v>45638.84375</v>
@@ -15225,10 +15225,10 @@
         </is>
       </c>
       <c r="G400" s="1" t="n">
-        <v>45686.80382777778</v>
+        <v>45713.46615330556</v>
       </c>
       <c r="H400" s="1" t="n">
-        <v>45686.80538333333</v>
+        <v>45713.46770886111</v>
       </c>
       <c r="I400" s="1" t="n">
         <v>45638.84375</v>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="G401" s="1" t="n">
-        <v>45686.80563222223</v>
+        <v>45713.46795775</v>
       </c>
       <c r="H401" s="1" t="n">
-        <v>45686.80718777778</v>
+        <v>45713.46951330556</v>
       </c>
       <c r="I401" s="1" t="n">
         <v>45638.84375</v>
@@ -15299,10 +15299,10 @@
         </is>
       </c>
       <c r="G402" s="1" t="n">
-        <v>45687.06875577778</v>
+        <v>45720.16393422222</v>
       </c>
       <c r="H402" s="1" t="n">
-        <v>45687.11813355555</v>
+        <v>45720.213312</v>
       </c>
       <c r="I402" s="1" t="n">
         <v>45638.84375</v>
@@ -15336,10 +15336,10 @@
         </is>
       </c>
       <c r="G403" s="1" t="n">
-        <v>45686.78758777778</v>
+        <v>45713.44991330556</v>
       </c>
       <c r="H403" s="1" t="n">
-        <v>45686.78914333334</v>
+        <v>45713.45146886111</v>
       </c>
       <c r="I403" s="1" t="n">
         <v>45638.84375</v>
@@ -15373,10 +15373,10 @@
         </is>
       </c>
       <c r="G404" s="1" t="n">
-        <v>45686.80563222223</v>
+        <v>45713.46795775</v>
       </c>
       <c r="H404" s="1" t="n">
-        <v>45686.80718777778</v>
+        <v>45713.46951330556</v>
       </c>
       <c r="I404" s="1" t="n">
         <v>45638.84375</v>
@@ -15410,10 +15410,10 @@
         </is>
       </c>
       <c r="G405" s="1" t="n">
-        <v>45686.80743666667</v>
+        <v>45713.46976219444</v>
       </c>
       <c r="H405" s="1" t="n">
-        <v>45686.80899222222</v>
+        <v>45713.47131775</v>
       </c>
       <c r="I405" s="1" t="n">
         <v>45638.84375</v>
@@ -15447,10 +15447,10 @@
         </is>
       </c>
       <c r="G406" s="1" t="n">
-        <v>45686.80743666667</v>
+        <v>45713.46976219444</v>
       </c>
       <c r="H406" s="1" t="n">
-        <v>45686.80899222222</v>
+        <v>45713.47131775</v>
       </c>
       <c r="I406" s="1" t="n">
         <v>45638.84375</v>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -15484,10 +15484,10 @@
         </is>
       </c>
       <c r="G407" s="1" t="n">
-        <v>45686.90877177778</v>
+        <v>45720.73333333333</v>
       </c>
       <c r="H407" s="1" t="n">
-        <v>45686.95814955555</v>
+        <v>45720.86666666667</v>
       </c>
       <c r="I407" s="1" t="n">
         <v>45638.84375</v>
@@ -15521,10 +15521,10 @@
         </is>
       </c>
       <c r="G408" s="1" t="n">
-        <v>45686.78939222222</v>
+        <v>45713.45171775</v>
       </c>
       <c r="H408" s="1" t="n">
-        <v>45686.79094777778</v>
+        <v>45713.45327330555</v>
       </c>
       <c r="I408" s="1" t="n">
         <v>45638.84375</v>
@@ -15558,10 +15558,10 @@
         </is>
       </c>
       <c r="G409" s="1" t="n">
-        <v>45686.80924111111</v>
+        <v>45713.47156663889</v>
       </c>
       <c r="H409" s="1" t="n">
-        <v>45686.81079666666</v>
+        <v>45713.47312219445</v>
       </c>
       <c r="I409" s="1" t="n">
         <v>45638.84375</v>
@@ -15595,10 +15595,10 @@
         </is>
       </c>
       <c r="G410" s="1" t="n">
-        <v>45686.80924111111</v>
+        <v>45713.47156663889</v>
       </c>
       <c r="H410" s="1" t="n">
-        <v>45686.81079666666</v>
+        <v>45713.47312219445</v>
       </c>
       <c r="I410" s="1" t="n">
         <v>45638.84375</v>
@@ -15632,10 +15632,10 @@
         </is>
       </c>
       <c r="G411" s="1" t="n">
-        <v>45686.81104555556</v>
+        <v>45713.47337108333</v>
       </c>
       <c r="H411" s="1" t="n">
-        <v>45686.81260111111</v>
+        <v>45713.47492663889</v>
       </c>
       <c r="I411" s="1" t="n">
         <v>45638.84375</v>
@@ -15669,10 +15669,10 @@
         </is>
       </c>
       <c r="G412" s="1" t="n">
-        <v>45686.96209977777</v>
+        <v>45720.21726222222</v>
       </c>
       <c r="H412" s="1" t="n">
-        <v>45687.01147755556</v>
+        <v>45720.26664</v>
       </c>
       <c r="I412" s="1" t="n">
         <v>45638.84375</v>
@@ -15706,10 +15706,10 @@
         </is>
       </c>
       <c r="G413" s="1" t="n">
-        <v>45686.78939222222</v>
+        <v>45713.45171775</v>
       </c>
       <c r="H413" s="1" t="n">
-        <v>45686.79094777778</v>
+        <v>45713.45327330555</v>
       </c>
       <c r="I413" s="1" t="n">
         <v>45638.84375</v>
@@ -15743,10 +15743,10 @@
         </is>
       </c>
       <c r="G414" s="1" t="n">
-        <v>45686.81104555556</v>
+        <v>45713.47337108333</v>
       </c>
       <c r="H414" s="1" t="n">
-        <v>45686.81260111111</v>
+        <v>45713.47492663889</v>
       </c>
       <c r="I414" s="1" t="n">
         <v>45638.84375</v>
@@ -15780,10 +15780,10 @@
         </is>
       </c>
       <c r="G415" s="1" t="n">
-        <v>45686.81285</v>
+        <v>45713.47517552778</v>
       </c>
       <c r="H415" s="1" t="n">
-        <v>45686.81440555555</v>
+        <v>45713.47673108333</v>
       </c>
       <c r="I415" s="1" t="n">
         <v>45638.84375</v>
@@ -15817,10 +15817,10 @@
         </is>
       </c>
       <c r="G416" s="1" t="n">
-        <v>45686.81285</v>
+        <v>45713.47517552778</v>
       </c>
       <c r="H416" s="1" t="n">
-        <v>45686.81440555555</v>
+        <v>45713.47673108333</v>
       </c>
       <c r="I416" s="1" t="n">
         <v>45638.84375</v>
@@ -15834,7 +15834,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -15854,10 +15854,10 @@
         </is>
       </c>
       <c r="G417" s="1" t="n">
-        <v>45686.95283222222</v>
+        <v>45720.00395022222</v>
       </c>
       <c r="H417" s="1" t="n">
-        <v>45687.08616555556</v>
+        <v>45720.053328</v>
       </c>
       <c r="I417" s="1" t="n">
         <v>45638.84375</v>
@@ -15891,10 +15891,10 @@
         </is>
       </c>
       <c r="G418" s="1" t="n">
-        <v>45686.78939222222</v>
+        <v>45713.45171775</v>
       </c>
       <c r="H418" s="1" t="n">
-        <v>45686.79094777778</v>
+        <v>45713.45327330555</v>
       </c>
       <c r="I418" s="1" t="n">
         <v>45638.84375</v>
@@ -15928,10 +15928,10 @@
         </is>
       </c>
       <c r="G419" s="1" t="n">
-        <v>45686.81465444445</v>
+        <v>45713.47697997222</v>
       </c>
       <c r="H419" s="1" t="n">
-        <v>45686.81621</v>
+        <v>45713.47853552778</v>
       </c>
       <c r="I419" s="1" t="n">
         <v>45638.84375</v>
@@ -15965,10 +15965,10 @@
         </is>
       </c>
       <c r="G420" s="1" t="n">
-        <v>45686.81465444445</v>
+        <v>45713.47697997222</v>
       </c>
       <c r="H420" s="1" t="n">
-        <v>45686.81621</v>
+        <v>45713.47853552778</v>
       </c>
       <c r="I420" s="1" t="n">
         <v>45638.84375</v>
@@ -16002,10 +16002,10 @@
         </is>
       </c>
       <c r="G421" s="1" t="n">
-        <v>45686.81645888889</v>
+        <v>45713.47878441666</v>
       </c>
       <c r="H421" s="1" t="n">
-        <v>45686.81801444444</v>
+        <v>45713.48033997222</v>
       </c>
       <c r="I421" s="1" t="n">
         <v>45638.84375</v>
@@ -16019,7 +16019,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -16039,10 +16039,10 @@
         </is>
       </c>
       <c r="G422" s="1" t="n">
-        <v>45686.80211577778</v>
+        <v>45720.87733333333</v>
       </c>
       <c r="H422" s="1" t="n">
-        <v>45686.85149355556</v>
+        <v>45721.01066666667</v>
       </c>
       <c r="I422" s="1" t="n">
         <v>45638.84375</v>
@@ -16076,10 +16076,10 @@
         </is>
       </c>
       <c r="G423" s="1" t="n">
-        <v>45686.79119666667</v>
+        <v>45713.45352219445</v>
       </c>
       <c r="H423" s="1" t="n">
-        <v>45686.79275222222</v>
+        <v>45713.45507775</v>
       </c>
       <c r="I423" s="1" t="n">
         <v>45638.84375</v>
@@ -16113,10 +16113,10 @@
         </is>
       </c>
       <c r="G424" s="1" t="n">
-        <v>45686.81645888889</v>
+        <v>45713.47878441666</v>
       </c>
       <c r="H424" s="1" t="n">
-        <v>45686.81801444444</v>
+        <v>45713.48033997222</v>
       </c>
       <c r="I424" s="1" t="n">
         <v>45638.84375</v>
@@ -16150,10 +16150,10 @@
         </is>
       </c>
       <c r="G425" s="1" t="n">
-        <v>45686.81826333333</v>
+        <v>45713.48058886111</v>
       </c>
       <c r="H425" s="1" t="n">
-        <v>45686.81981888889</v>
+        <v>45713.48214441667</v>
       </c>
       <c r="I425" s="1" t="n">
         <v>45638.84375</v>
@@ -16187,10 +16187,10 @@
         </is>
       </c>
       <c r="G426" s="1" t="n">
-        <v>45686.81826333333</v>
+        <v>45713.48058886111</v>
       </c>
       <c r="H426" s="1" t="n">
-        <v>45686.81981888889</v>
+        <v>45713.48214441667</v>
       </c>
       <c r="I426" s="1" t="n">
         <v>45638.84375</v>
@@ -16224,10 +16224,10 @@
         </is>
       </c>
       <c r="G427" s="1" t="n">
-        <v>45687.09683222223</v>
+        <v>45720.58933333333</v>
       </c>
       <c r="H427" s="1" t="n">
-        <v>45687.23016555556</v>
+        <v>45720.72266666667</v>
       </c>
       <c r="I427" s="1" t="n">
         <v>45638.84375</v>
@@ -16261,10 +16261,10 @@
         </is>
       </c>
       <c r="G428" s="1" t="n">
-        <v>45686.79119666667</v>
+        <v>45713.45352219445</v>
       </c>
       <c r="H428" s="1" t="n">
-        <v>45686.79275222222</v>
+        <v>45713.45507775</v>
       </c>
       <c r="I428" s="1" t="n">
         <v>45638.84375</v>
@@ -16298,10 +16298,10 @@
         </is>
       </c>
       <c r="G429" s="1" t="n">
-        <v>45686.82006777778</v>
+        <v>45713.48239330555</v>
       </c>
       <c r="H429" s="1" t="n">
-        <v>45686.82162333334</v>
+        <v>45713.48394886111</v>
       </c>
       <c r="I429" s="1" t="n">
         <v>45638.84375</v>
@@ -16335,10 +16335,10 @@
         </is>
       </c>
       <c r="G430" s="1" t="n">
-        <v>45686.82006777778</v>
+        <v>45713.48239330555</v>
       </c>
       <c r="H430" s="1" t="n">
-        <v>45686.82162333334</v>
+        <v>45713.48394886111</v>
       </c>
       <c r="I430" s="1" t="n">
         <v>45638.84375</v>
@@ -16372,10 +16372,10 @@
         </is>
       </c>
       <c r="G431" s="1" t="n">
-        <v>45686.82187222222</v>
+        <v>45713.48419775</v>
       </c>
       <c r="H431" s="1" t="n">
-        <v>45686.82342777778</v>
+        <v>45713.48575330555</v>
       </c>
       <c r="I431" s="1" t="n">
         <v>45638.84375</v>
@@ -16409,10 +16409,10 @@
         </is>
       </c>
       <c r="G432" s="1" t="n">
-        <v>45687.73502711111</v>
+        <v>45720.26762755556</v>
       </c>
       <c r="H432" s="1" t="n">
-        <v>45687.74737155555</v>
+        <v>45720.279972</v>
       </c>
       <c r="I432" s="1" t="n">
         <v>45638.84375</v>
@@ -16446,10 +16446,10 @@
         </is>
       </c>
       <c r="G433" s="1" t="n">
-        <v>45686.79119666667</v>
+        <v>45713.45352219445</v>
       </c>
       <c r="H433" s="1" t="n">
-        <v>45686.79158555555</v>
+        <v>45713.45391108334</v>
       </c>
       <c r="I433" s="1" t="n">
         <v>45638.84375</v>
@@ -16483,10 +16483,10 @@
         </is>
       </c>
       <c r="G434" s="1" t="n">
-        <v>45686.82187222222</v>
+        <v>45713.48419775</v>
       </c>
       <c r="H434" s="1" t="n">
-        <v>45686.82226111111</v>
+        <v>45713.48458663889</v>
       </c>
       <c r="I434" s="1" t="n">
         <v>45638.84375</v>
@@ -16520,10 +16520,10 @@
         </is>
       </c>
       <c r="G435" s="1" t="n">
-        <v>45686.82349</v>
+        <v>45713.48581552778</v>
       </c>
       <c r="H435" s="1" t="n">
-        <v>45686.82387888889</v>
+        <v>45713.48620441667</v>
       </c>
       <c r="I435" s="1" t="n">
         <v>45638.84375</v>
@@ -16557,10 +16557,10 @@
         </is>
       </c>
       <c r="G436" s="1" t="n">
-        <v>45686.82349</v>
+        <v>45713.48581552778</v>
       </c>
       <c r="H436" s="1" t="n">
-        <v>45686.82387888889</v>
+        <v>45713.48620441667</v>
       </c>
       <c r="I436" s="1" t="n">
         <v>45638.84375</v>
@@ -16574,7 +16574,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>BUN008</t>
+          <t>BUN009</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -16594,10 +16594,10 @@
         </is>
       </c>
       <c r="G437" s="1" t="n">
-        <v>45686.83262513889</v>
+        <v>45720.67083333333</v>
       </c>
       <c r="H437" s="1" t="n">
-        <v>45686.88470847222</v>
+        <v>45720.72291666667</v>
       </c>
       <c r="I437" s="1" t="n">
         <v>45639.95069444444</v>
@@ -16631,10 +16631,10 @@
         </is>
       </c>
       <c r="G438" s="1" t="n">
-        <v>45686.82419472222</v>
+        <v>45713.44540066666</v>
       </c>
       <c r="H438" s="1" t="n">
-        <v>45686.82616868056</v>
+        <v>45713.447374625</v>
       </c>
       <c r="I438" s="1" t="n">
         <v>45639.95069444444</v>
@@ -16668,10 +16668,10 @@
         </is>
       </c>
       <c r="G439" s="1" t="n">
-        <v>45686.82648451389</v>
+        <v>45713.44769045834</v>
       </c>
       <c r="H439" s="1" t="n">
-        <v>45686.82845847222</v>
+        <v>45713.44966441666</v>
       </c>
       <c r="I439" s="1" t="n">
         <v>45639.95069444444</v>
@@ -16705,10 +16705,10 @@
         </is>
       </c>
       <c r="G440" s="1" t="n">
-        <v>45686.82648451389</v>
+        <v>45713.44769045834</v>
       </c>
       <c r="H440" s="1" t="n">
-        <v>45686.82845847222</v>
+        <v>45713.44966441666</v>
       </c>
       <c r="I440" s="1" t="n">
         <v>45639.95069444444</v>
@@ -16742,10 +16742,10 @@
         </is>
       </c>
       <c r="G441" s="1" t="n">
-        <v>45686.82419472222</v>
+        <v>45713.44540066666</v>
       </c>
       <c r="H441" s="1" t="n">
-        <v>45686.82522597222</v>
+        <v>45713.44643191667</v>
       </c>
       <c r="I441" s="1" t="n">
         <v>45639.95069444444</v>
@@ -16759,7 +16759,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -16779,10 +16779,10 @@
         </is>
       </c>
       <c r="G442" s="1" t="n">
-        <v>45686.97251847222</v>
+        <v>45719.78266666667</v>
       </c>
       <c r="H442" s="1" t="n">
-        <v>45687.03501847222</v>
+        <v>45719.88266666666</v>
       </c>
       <c r="I442" s="1" t="n">
         <v>45640</v>
@@ -16816,10 +16816,10 @@
         </is>
       </c>
       <c r="G443" s="1" t="n">
-        <v>45686.82859847222</v>
+        <v>45713.38681722222</v>
       </c>
       <c r="H443" s="1" t="n">
-        <v>45686.82947347222</v>
+        <v>45713.38769222222</v>
       </c>
       <c r="I443" s="1" t="n">
         <v>45640</v>
@@ -16853,10 +16853,10 @@
         </is>
       </c>
       <c r="G444" s="1" t="n">
-        <v>45686.82859847222</v>
+        <v>45713.38681722222</v>
       </c>
       <c r="H444" s="1" t="n">
-        <v>45686.82947347222</v>
+        <v>45713.38769222222</v>
       </c>
       <c r="I444" s="1" t="n">
         <v>45640</v>
@@ -16890,10 +16890,10 @@
         </is>
       </c>
       <c r="G445" s="1" t="n">
-        <v>45686.82961347222</v>
+        <v>45713.38783222222</v>
       </c>
       <c r="H445" s="1" t="n">
-        <v>45686.83048847222</v>
+        <v>45713.38870722222</v>
       </c>
       <c r="I445" s="1" t="n">
         <v>45640</v>
@@ -16927,10 +16927,10 @@
         </is>
       </c>
       <c r="G446" s="1" t="n">
-        <v>45686.82961347222</v>
+        <v>45713.38783222222</v>
       </c>
       <c r="H446" s="1" t="n">
-        <v>45686.83048847222</v>
+        <v>45713.38870722222</v>
       </c>
       <c r="I446" s="1" t="n">
         <v>45640</v>
@@ -16944,7 +16944,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -16964,10 +16964,10 @@
         </is>
       </c>
       <c r="G447" s="1" t="n">
-        <v>45687.52076847222</v>
+        <v>45719.99866666667</v>
       </c>
       <c r="H447" s="1" t="n">
-        <v>45687.58326847222</v>
+        <v>45720.09866666666</v>
       </c>
       <c r="I447" s="1" t="n">
         <v>45640</v>
@@ -17001,10 +17001,10 @@
         </is>
       </c>
       <c r="G448" s="1" t="n">
-        <v>45686.83062847222</v>
+        <v>45713.38884722222</v>
       </c>
       <c r="H448" s="1" t="n">
-        <v>45686.83150347223</v>
+        <v>45713.38972222222</v>
       </c>
       <c r="I448" s="1" t="n">
         <v>45640</v>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="G449" s="1" t="n">
-        <v>45686.83062847222</v>
+        <v>45713.38884722222</v>
       </c>
       <c r="H449" s="1" t="n">
-        <v>45686.83150347223</v>
+        <v>45713.38972222222</v>
       </c>
       <c r="I449" s="1" t="n">
         <v>45640</v>
@@ -17075,10 +17075,10 @@
         </is>
       </c>
       <c r="G450" s="1" t="n">
-        <v>45686.83164347222</v>
+        <v>45713.38986222222</v>
       </c>
       <c r="H450" s="1" t="n">
-        <v>45686.83251847222</v>
+        <v>45713.39073722222</v>
       </c>
       <c r="I450" s="1" t="n">
         <v>45640</v>
@@ -17112,10 +17112,10 @@
         </is>
       </c>
       <c r="G451" s="1" t="n">
-        <v>45686.83164347222</v>
+        <v>45713.38986222222</v>
       </c>
       <c r="H451" s="1" t="n">
-        <v>45686.83251847222</v>
+        <v>45713.39073722222</v>
       </c>
       <c r="I451" s="1" t="n">
         <v>45640</v>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN054</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -17149,10 +17149,10 @@
         </is>
       </c>
       <c r="G452" s="1" t="n">
-        <v>45688.05416555556</v>
+        <v>45720.6125</v>
       </c>
       <c r="H452" s="1" t="n">
-        <v>45688.15416555556</v>
+        <v>45720.675</v>
       </c>
       <c r="I452" s="1" t="n">
         <v>45640</v>
@@ -17186,10 +17186,10 @@
         </is>
       </c>
       <c r="G453" s="1" t="n">
-        <v>45686.83265847222</v>
+        <v>45713.39087722222</v>
       </c>
       <c r="H453" s="1" t="n">
-        <v>45686.83353347222</v>
+        <v>45713.39175222223</v>
       </c>
       <c r="I453" s="1" t="n">
         <v>45640</v>
@@ -17223,10 +17223,10 @@
         </is>
       </c>
       <c r="G454" s="1" t="n">
-        <v>45686.83265847222</v>
+        <v>45713.39087722222</v>
       </c>
       <c r="H454" s="1" t="n">
-        <v>45686.83353347222</v>
+        <v>45713.39175222223</v>
       </c>
       <c r="I454" s="1" t="n">
         <v>45640</v>
@@ -17260,10 +17260,10 @@
         </is>
       </c>
       <c r="G455" s="1" t="n">
-        <v>45686.83367347223</v>
+        <v>45713.39189222222</v>
       </c>
       <c r="H455" s="1" t="n">
-        <v>45686.83454847222</v>
+        <v>45713.39276722222</v>
       </c>
       <c r="I455" s="1" t="n">
         <v>45640</v>
@@ -17297,10 +17297,10 @@
         </is>
       </c>
       <c r="G456" s="1" t="n">
-        <v>45686.83367347223</v>
+        <v>45713.39189222222</v>
       </c>
       <c r="H456" s="1" t="n">
-        <v>45686.83454847222</v>
+        <v>45713.39276722222</v>
       </c>
       <c r="I456" s="1" t="n">
         <v>45640</v>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BUN054</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -17334,10 +17334,10 @@
         </is>
       </c>
       <c r="G457" s="1" t="n">
-        <v>45687.22738355555</v>
+        <v>45720.005</v>
       </c>
       <c r="H457" s="1" t="n">
-        <v>45687.28988355555</v>
+        <v>45720.0675</v>
       </c>
       <c r="I457" s="1" t="n">
         <v>45640</v>
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="G458" s="1" t="n">
-        <v>45686.83468847222</v>
+        <v>45713.39290722222</v>
       </c>
       <c r="H458" s="1" t="n">
-        <v>45686.83556347222</v>
+        <v>45713.39378222222</v>
       </c>
       <c r="I458" s="1" t="n">
         <v>45640</v>
@@ -17408,10 +17408,10 @@
         </is>
       </c>
       <c r="G459" s="1" t="n">
-        <v>45686.83468847222</v>
+        <v>45713.39290722222</v>
       </c>
       <c r="H459" s="1" t="n">
-        <v>45686.83556347222</v>
+        <v>45713.39378222222</v>
       </c>
       <c r="I459" s="1" t="n">
         <v>45640</v>
@@ -17445,10 +17445,10 @@
         </is>
       </c>
       <c r="G460" s="1" t="n">
-        <v>45686.83570347222</v>
+        <v>45713.39392222223</v>
       </c>
       <c r="H460" s="1" t="n">
-        <v>45686.83657847222</v>
+        <v>45713.39479722222</v>
       </c>
       <c r="I460" s="1" t="n">
         <v>45640</v>
@@ -17482,10 +17482,10 @@
         </is>
       </c>
       <c r="G461" s="1" t="n">
-        <v>45686.83570347222</v>
+        <v>45713.39392222223</v>
       </c>
       <c r="H461" s="1" t="n">
-        <v>45686.83657847222</v>
+        <v>45713.39479722222</v>
       </c>
       <c r="I461" s="1" t="n">
         <v>45640</v>
@@ -17499,7 +17499,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -17519,10 +17519,10 @@
         </is>
       </c>
       <c r="G462" s="1" t="n">
-        <v>45687.31826847222</v>
+        <v>45719.67466666667</v>
       </c>
       <c r="H462" s="1" t="n">
-        <v>45687.38076847222</v>
+        <v>45719.77466666666</v>
       </c>
       <c r="I462" s="1" t="n">
         <v>45640</v>
@@ -17556,10 +17556,10 @@
         </is>
       </c>
       <c r="G463" s="1" t="n">
-        <v>45686.83671847222</v>
+        <v>45713.39493722222</v>
       </c>
       <c r="H463" s="1" t="n">
-        <v>45686.83759347222</v>
+        <v>45713.39581222222</v>
       </c>
       <c r="I463" s="1" t="n">
         <v>45640</v>
@@ -17593,10 +17593,10 @@
         </is>
       </c>
       <c r="G464" s="1" t="n">
-        <v>45686.83671847222</v>
+        <v>45713.39493722222</v>
       </c>
       <c r="H464" s="1" t="n">
-        <v>45686.83759347222</v>
+        <v>45713.39581222222</v>
       </c>
       <c r="I464" s="1" t="n">
         <v>45640</v>
@@ -17630,10 +17630,10 @@
         </is>
       </c>
       <c r="G465" s="1" t="n">
-        <v>45686.83773347222</v>
+        <v>45713.39595222222</v>
       </c>
       <c r="H465" s="1" t="n">
-        <v>45686.83860847222</v>
+        <v>45713.39682722222</v>
       </c>
       <c r="I465" s="1" t="n">
         <v>45640</v>
@@ -17667,10 +17667,10 @@
         </is>
       </c>
       <c r="G466" s="1" t="n">
-        <v>45686.83773347222</v>
+        <v>45713.39595222222</v>
       </c>
       <c r="H466" s="1" t="n">
-        <v>45686.83860847222</v>
+        <v>45713.39682722222</v>
       </c>
       <c r="I466" s="1" t="n">
         <v>45640</v>
@@ -17684,7 +17684,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -17704,10 +17704,10 @@
         </is>
       </c>
       <c r="G467" s="1" t="n">
-        <v>45686.90501847222</v>
+        <v>45720.22786666667</v>
       </c>
       <c r="H467" s="1" t="n">
-        <v>45686.96751847222</v>
+        <v>45720.32786666667</v>
       </c>
       <c r="I467" s="1" t="n">
         <v>45640</v>
@@ -17741,10 +17741,10 @@
         </is>
       </c>
       <c r="G468" s="1" t="n">
-        <v>45686.83874847222</v>
+        <v>45713.39696722222</v>
       </c>
       <c r="H468" s="1" t="n">
-        <v>45686.83962347222</v>
+        <v>45713.39784222222</v>
       </c>
       <c r="I468" s="1" t="n">
         <v>45640</v>
@@ -17778,10 +17778,10 @@
         </is>
       </c>
       <c r="G469" s="1" t="n">
-        <v>45686.83874847222</v>
+        <v>45713.39696722222</v>
       </c>
       <c r="H469" s="1" t="n">
-        <v>45686.83962347222</v>
+        <v>45713.39784222222</v>
       </c>
       <c r="I469" s="1" t="n">
         <v>45640</v>
@@ -17815,10 +17815,10 @@
         </is>
       </c>
       <c r="G470" s="1" t="n">
-        <v>45686.83976347222</v>
+        <v>45713.39798222222</v>
       </c>
       <c r="H470" s="1" t="n">
-        <v>45686.84063847223</v>
+        <v>45713.39885722222</v>
       </c>
       <c r="I470" s="1" t="n">
         <v>45640</v>
@@ -17852,10 +17852,10 @@
         </is>
       </c>
       <c r="G471" s="1" t="n">
-        <v>45686.83976347222</v>
+        <v>45713.39798222222</v>
       </c>
       <c r="H471" s="1" t="n">
-        <v>45686.84063847223</v>
+        <v>45713.39885722222</v>
       </c>
       <c r="I471" s="1" t="n">
         <v>45640</v>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -17889,10 +17889,10 @@
         </is>
       </c>
       <c r="G472" s="1" t="n">
-        <v>45687.45326847222</v>
+        <v>45720.729128</v>
       </c>
       <c r="H472" s="1" t="n">
-        <v>45687.51576847222</v>
+        <v>45720.791628</v>
       </c>
       <c r="I472" s="1" t="n">
         <v>45640</v>
@@ -17926,10 +17926,10 @@
         </is>
       </c>
       <c r="G473" s="1" t="n">
-        <v>45686.84077847222</v>
+        <v>45713.39899722222</v>
       </c>
       <c r="H473" s="1" t="n">
-        <v>45686.84165347222</v>
+        <v>45713.39987222222</v>
       </c>
       <c r="I473" s="1" t="n">
         <v>45640</v>
@@ -17963,10 +17963,10 @@
         </is>
       </c>
       <c r="G474" s="1" t="n">
-        <v>45686.84077847222</v>
+        <v>45713.39899722222</v>
       </c>
       <c r="H474" s="1" t="n">
-        <v>45686.84165347222</v>
+        <v>45713.39987222222</v>
       </c>
       <c r="I474" s="1" t="n">
         <v>45640</v>
@@ -18000,10 +18000,10 @@
         </is>
       </c>
       <c r="G475" s="1" t="n">
-        <v>45686.84179347222</v>
+        <v>45713.40001222222</v>
       </c>
       <c r="H475" s="1" t="n">
-        <v>45686.84266847222</v>
+        <v>45713.40088722223</v>
       </c>
       <c r="I475" s="1" t="n">
         <v>45640</v>
@@ -18037,10 +18037,10 @@
         </is>
       </c>
       <c r="G476" s="1" t="n">
-        <v>45686.84179347222</v>
+        <v>45713.40001222222</v>
       </c>
       <c r="H476" s="1" t="n">
-        <v>45686.84266847222</v>
+        <v>45713.40088722223</v>
       </c>
       <c r="I476" s="1" t="n">
         <v>45640</v>
@@ -18054,7 +18054,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -18074,10 +18074,10 @@
         </is>
       </c>
       <c r="G477" s="1" t="n">
-        <v>45687.73016555556</v>
+        <v>45720.594128</v>
       </c>
       <c r="H477" s="1" t="n">
-        <v>45687.83016555556</v>
+        <v>45720.656628</v>
       </c>
       <c r="I477" s="1" t="n">
         <v>45640</v>
@@ -18111,10 +18111,10 @@
         </is>
       </c>
       <c r="G478" s="1" t="n">
-        <v>45686.84280847223</v>
+        <v>45713.40102722222</v>
       </c>
       <c r="H478" s="1" t="n">
-        <v>45686.84368347222</v>
+        <v>45713.40190222222</v>
       </c>
       <c r="I478" s="1" t="n">
         <v>45640</v>
@@ -18148,10 +18148,10 @@
         </is>
       </c>
       <c r="G479" s="1" t="n">
-        <v>45686.84280847223</v>
+        <v>45713.40102722222</v>
       </c>
       <c r="H479" s="1" t="n">
-        <v>45686.84368347222</v>
+        <v>45713.40190222222</v>
       </c>
       <c r="I479" s="1" t="n">
         <v>45640</v>
@@ -18185,10 +18185,10 @@
         </is>
       </c>
       <c r="G480" s="1" t="n">
-        <v>45686.84382347222</v>
+        <v>45713.40204222222</v>
       </c>
       <c r="H480" s="1" t="n">
-        <v>45686.84469847222</v>
+        <v>45713.40291722222</v>
       </c>
       <c r="I480" s="1" t="n">
         <v>45640</v>
@@ -18222,10 +18222,10 @@
         </is>
       </c>
       <c r="G481" s="1" t="n">
-        <v>45686.84382347222</v>
+        <v>45713.40204222222</v>
       </c>
       <c r="H481" s="1" t="n">
-        <v>45686.84469847222</v>
+        <v>45713.40291722222</v>
       </c>
       <c r="I481" s="1" t="n">
         <v>45640</v>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -18259,10 +18259,10 @@
         </is>
       </c>
       <c r="G482" s="1" t="n">
-        <v>45687.04001847222</v>
+        <v>45720.796628</v>
       </c>
       <c r="H482" s="1" t="n">
-        <v>45687.10251847222</v>
+        <v>45720.859128</v>
       </c>
       <c r="I482" s="1" t="n">
         <v>45640</v>
@@ -18296,10 +18296,10 @@
         </is>
       </c>
       <c r="G483" s="1" t="n">
-        <v>45686.84483847222</v>
+        <v>45713.40305722223</v>
       </c>
       <c r="H483" s="1" t="n">
-        <v>45686.84571347222</v>
+        <v>45713.40393222222</v>
       </c>
       <c r="I483" s="1" t="n">
         <v>45640</v>
@@ -18333,10 +18333,10 @@
         </is>
       </c>
       <c r="G484" s="1" t="n">
-        <v>45686.84483847222</v>
+        <v>45713.40305722223</v>
       </c>
       <c r="H484" s="1" t="n">
-        <v>45686.84571347222</v>
+        <v>45713.40393222222</v>
       </c>
       <c r="I484" s="1" t="n">
         <v>45640</v>
@@ -18370,10 +18370,10 @@
         </is>
       </c>
       <c r="G485" s="1" t="n">
-        <v>45686.84585347222</v>
+        <v>45713.40407222222</v>
       </c>
       <c r="H485" s="1" t="n">
-        <v>45686.84672847222</v>
+        <v>45713.40494722223</v>
       </c>
       <c r="I485" s="1" t="n">
         <v>45640</v>
@@ -18407,10 +18407,10 @@
         </is>
       </c>
       <c r="G486" s="1" t="n">
-        <v>45686.84585347222</v>
+        <v>45713.40407222222</v>
       </c>
       <c r="H486" s="1" t="n">
-        <v>45686.84672847222</v>
+        <v>45713.40494722223</v>
       </c>
       <c r="I486" s="1" t="n">
         <v>45640</v>
@@ -18424,7 +18424,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN054</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -18444,10 +18444,10 @@
         </is>
       </c>
       <c r="G487" s="1" t="n">
-        <v>45687.62216555556</v>
+        <v>45720.14</v>
       </c>
       <c r="H487" s="1" t="n">
-        <v>45687.72216555555</v>
+        <v>45720.2025</v>
       </c>
       <c r="I487" s="1" t="n">
         <v>45640</v>
@@ -18481,10 +18481,10 @@
         </is>
       </c>
       <c r="G488" s="1" t="n">
-        <v>45686.84686847222</v>
+        <v>45713.40508722222</v>
       </c>
       <c r="H488" s="1" t="n">
-        <v>45686.84774347222</v>
+        <v>45713.40596222222</v>
       </c>
       <c r="I488" s="1" t="n">
         <v>45640</v>
@@ -18518,10 +18518,10 @@
         </is>
       </c>
       <c r="G489" s="1" t="n">
-        <v>45686.84686847222</v>
+        <v>45713.40508722222</v>
       </c>
       <c r="H489" s="1" t="n">
-        <v>45686.84774347222</v>
+        <v>45713.40596222222</v>
       </c>
       <c r="I489" s="1" t="n">
         <v>45640</v>
@@ -18555,10 +18555,10 @@
         </is>
       </c>
       <c r="G490" s="1" t="n">
-        <v>45686.84788347222</v>
+        <v>45713.40610222222</v>
       </c>
       <c r="H490" s="1" t="n">
-        <v>45686.84875847222</v>
+        <v>45713.40697722222</v>
       </c>
       <c r="I490" s="1" t="n">
         <v>45640</v>
@@ -18592,10 +18592,10 @@
         </is>
       </c>
       <c r="G491" s="1" t="n">
-        <v>45686.84788347222</v>
+        <v>45713.40610222222</v>
       </c>
       <c r="H491" s="1" t="n">
-        <v>45686.84875847222</v>
+        <v>45713.40697722222</v>
       </c>
       <c r="I491" s="1" t="n">
         <v>45640</v>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BUN054</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -18629,10 +18629,10 @@
         </is>
       </c>
       <c r="G492" s="1" t="n">
-        <v>45687.29488355556</v>
+        <v>45720.2075</v>
       </c>
       <c r="H492" s="1" t="n">
-        <v>45687.35738355556</v>
+        <v>45720.27</v>
       </c>
       <c r="I492" s="1" t="n">
         <v>45640</v>
@@ -18666,10 +18666,10 @@
         </is>
       </c>
       <c r="G493" s="1" t="n">
-        <v>45686.84889847222</v>
+        <v>45713.40711722222</v>
       </c>
       <c r="H493" s="1" t="n">
-        <v>45686.84977347222</v>
+        <v>45713.40799222222</v>
       </c>
       <c r="I493" s="1" t="n">
         <v>45640</v>
@@ -18703,10 +18703,10 @@
         </is>
       </c>
       <c r="G494" s="1" t="n">
-        <v>45686.84889847222</v>
+        <v>45713.40711722222</v>
       </c>
       <c r="H494" s="1" t="n">
-        <v>45686.84977347222</v>
+        <v>45713.40799222222</v>
       </c>
       <c r="I494" s="1" t="n">
         <v>45640</v>
@@ -18740,10 +18740,10 @@
         </is>
       </c>
       <c r="G495" s="1" t="n">
-        <v>45686.84991347222</v>
+        <v>45713.40813222222</v>
       </c>
       <c r="H495" s="1" t="n">
-        <v>45686.85078847222</v>
+        <v>45713.40900722222</v>
       </c>
       <c r="I495" s="1" t="n">
         <v>45640</v>
@@ -18777,10 +18777,10 @@
         </is>
       </c>
       <c r="G496" s="1" t="n">
-        <v>45686.84991347222</v>
+        <v>45713.40813222222</v>
       </c>
       <c r="H496" s="1" t="n">
-        <v>45686.85078847222</v>
+        <v>45713.40900722222</v>
       </c>
       <c r="I496" s="1" t="n">
         <v>45640</v>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="G497" s="1" t="n">
-        <v>45687.56488355555</v>
+        <v>45720.459128</v>
       </c>
       <c r="H497" s="1" t="n">
-        <v>45687.62738355555</v>
+        <v>45720.521628</v>
       </c>
       <c r="I497" s="1" t="n">
         <v>45640</v>
@@ -18851,10 +18851,10 @@
         </is>
       </c>
       <c r="G498" s="1" t="n">
-        <v>45686.85092847222</v>
+        <v>45713.40914722222</v>
       </c>
       <c r="H498" s="1" t="n">
-        <v>45686.85180347222</v>
+        <v>45713.41002222222</v>
       </c>
       <c r="I498" s="1" t="n">
         <v>45640</v>
@@ -18888,10 +18888,10 @@
         </is>
       </c>
       <c r="G499" s="1" t="n">
-        <v>45686.85092847222</v>
+        <v>45713.40914722222</v>
       </c>
       <c r="H499" s="1" t="n">
-        <v>45686.85180347222</v>
+        <v>45713.41002222222</v>
       </c>
       <c r="I499" s="1" t="n">
         <v>45640</v>
@@ -18925,10 +18925,10 @@
         </is>
       </c>
       <c r="G500" s="1" t="n">
-        <v>45686.85194347223</v>
+        <v>45713.41016222222</v>
       </c>
       <c r="H500" s="1" t="n">
-        <v>45686.85281847222</v>
+        <v>45713.41103722222</v>
       </c>
       <c r="I500" s="1" t="n">
         <v>45640</v>
@@ -18962,10 +18962,10 @@
         </is>
       </c>
       <c r="G501" s="1" t="n">
-        <v>45686.85194347223</v>
+        <v>45713.41016222222</v>
       </c>
       <c r="H501" s="1" t="n">
-        <v>45686.85281847222</v>
+        <v>45713.41103722222</v>
       </c>
       <c r="I501" s="1" t="n">
         <v>45640</v>
@@ -18999,10 +18999,10 @@
         </is>
       </c>
       <c r="G502" s="1" t="n">
-        <v>45687.51416555556</v>
+        <v>45720.10666666667</v>
       </c>
       <c r="H502" s="1" t="n">
-        <v>45687.61416555555</v>
+        <v>45720.20666666667</v>
       </c>
       <c r="I502" s="1" t="n">
         <v>45640</v>
@@ -19036,10 +19036,10 @@
         </is>
       </c>
       <c r="G503" s="1" t="n">
-        <v>45686.85295847222</v>
+        <v>45713.41117722222</v>
       </c>
       <c r="H503" s="1" t="n">
-        <v>45686.85383347223</v>
+        <v>45713.41205222222</v>
       </c>
       <c r="I503" s="1" t="n">
         <v>45640</v>
@@ -19073,10 +19073,10 @@
         </is>
       </c>
       <c r="G504" s="1" t="n">
-        <v>45686.85295847222</v>
+        <v>45713.41117722222</v>
       </c>
       <c r="H504" s="1" t="n">
-        <v>45686.85383347223</v>
+        <v>45713.41205222222</v>
       </c>
       <c r="I504" s="1" t="n">
         <v>45640</v>
@@ -19110,10 +19110,10 @@
         </is>
       </c>
       <c r="G505" s="1" t="n">
-        <v>45686.85397347222</v>
+        <v>45713.41219222223</v>
       </c>
       <c r="H505" s="1" t="n">
-        <v>45686.85484847222</v>
+        <v>45713.41306722222</v>
       </c>
       <c r="I505" s="1" t="n">
         <v>45640</v>
@@ -19147,10 +19147,10 @@
         </is>
       </c>
       <c r="G506" s="1" t="n">
-        <v>45686.85397347222</v>
+        <v>45713.41219222223</v>
       </c>
       <c r="H506" s="1" t="n">
-        <v>45686.85484847222</v>
+        <v>45713.41306722222</v>
       </c>
       <c r="I506" s="1" t="n">
         <v>45640</v>
@@ -19184,10 +19184,10 @@
         </is>
       </c>
       <c r="G507" s="1" t="n">
-        <v>45687.38576847222</v>
+        <v>45720.545</v>
       </c>
       <c r="H507" s="1" t="n">
-        <v>45687.44826847222</v>
+        <v>45720.6075</v>
       </c>
       <c r="I507" s="1" t="n">
         <v>45640</v>
@@ -19221,10 +19221,10 @@
         </is>
       </c>
       <c r="G508" s="1" t="n">
-        <v>45686.85498847222</v>
+        <v>45713.41320722222</v>
       </c>
       <c r="H508" s="1" t="n">
-        <v>45686.85586347222</v>
+        <v>45713.41408222223</v>
       </c>
       <c r="I508" s="1" t="n">
         <v>45640</v>
@@ -19258,10 +19258,10 @@
         </is>
       </c>
       <c r="G509" s="1" t="n">
-        <v>45686.85498847222</v>
+        <v>45713.41320722222</v>
       </c>
       <c r="H509" s="1" t="n">
-        <v>45686.85586347222</v>
+        <v>45713.41408222223</v>
       </c>
       <c r="I509" s="1" t="n">
         <v>45640</v>
@@ -19295,10 +19295,10 @@
         </is>
       </c>
       <c r="G510" s="1" t="n">
-        <v>45686.85600347222</v>
+        <v>45713.41422222222</v>
       </c>
       <c r="H510" s="1" t="n">
-        <v>45686.85687847222</v>
+        <v>45713.41509722222</v>
       </c>
       <c r="I510" s="1" t="n">
         <v>45640</v>
@@ -19332,10 +19332,10 @@
         </is>
       </c>
       <c r="G511" s="1" t="n">
-        <v>45686.85600347222</v>
+        <v>45713.41422222222</v>
       </c>
       <c r="H511" s="1" t="n">
-        <v>45686.85687847222</v>
+        <v>45713.41509722222</v>
       </c>
       <c r="I511" s="1" t="n">
         <v>45640</v>
@@ -19349,7 +19349,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN054</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -19369,10 +19369,10 @@
         </is>
       </c>
       <c r="G512" s="1" t="n">
-        <v>45687.83816555556</v>
+        <v>45720.3425</v>
       </c>
       <c r="H512" s="1" t="n">
-        <v>45687.93816555556</v>
+        <v>45720.405</v>
       </c>
       <c r="I512" s="1" t="n">
         <v>45640</v>
@@ -19406,10 +19406,10 @@
         </is>
       </c>
       <c r="G513" s="1" t="n">
-        <v>45686.85701847222</v>
+        <v>45713.41523722222</v>
       </c>
       <c r="H513" s="1" t="n">
-        <v>45686.85789347222</v>
+        <v>45713.41611222222</v>
       </c>
       <c r="I513" s="1" t="n">
         <v>45640</v>
@@ -19443,10 +19443,10 @@
         </is>
       </c>
       <c r="G514" s="1" t="n">
-        <v>45686.85701847222</v>
+        <v>45713.41523722222</v>
       </c>
       <c r="H514" s="1" t="n">
-        <v>45686.85789347222</v>
+        <v>45713.41611222222</v>
       </c>
       <c r="I514" s="1" t="n">
         <v>45640</v>
@@ -19480,10 +19480,10 @@
         </is>
       </c>
       <c r="G515" s="1" t="n">
-        <v>45686.85803347222</v>
+        <v>45713.41625222223</v>
       </c>
       <c r="H515" s="1" t="n">
-        <v>45686.85890847222</v>
+        <v>45713.41712722222</v>
       </c>
       <c r="I515" s="1" t="n">
         <v>45640</v>
@@ -19517,10 +19517,10 @@
         </is>
       </c>
       <c r="G516" s="1" t="n">
-        <v>45686.85803347222</v>
+        <v>45713.41625222223</v>
       </c>
       <c r="H516" s="1" t="n">
-        <v>45686.85890847222</v>
+        <v>45713.41712722222</v>
       </c>
       <c r="I516" s="1" t="n">
         <v>45640</v>
@@ -19554,10 +19554,10 @@
         </is>
       </c>
       <c r="G517" s="1" t="n">
-        <v>45687.36238355556</v>
+        <v>45720.864128</v>
       </c>
       <c r="H517" s="1" t="n">
-        <v>45687.42488355556</v>
+        <v>45720.926628</v>
       </c>
       <c r="I517" s="1" t="n">
         <v>45640</v>
@@ -19591,10 +19591,10 @@
         </is>
       </c>
       <c r="G518" s="1" t="n">
-        <v>45686.85904847222</v>
+        <v>45713.41726722222</v>
       </c>
       <c r="H518" s="1" t="n">
-        <v>45686.85992347222</v>
+        <v>45713.41814222222</v>
       </c>
       <c r="I518" s="1" t="n">
         <v>45640</v>
@@ -19628,10 +19628,10 @@
         </is>
       </c>
       <c r="G519" s="1" t="n">
-        <v>45686.85904847222</v>
+        <v>45713.41726722222</v>
       </c>
       <c r="H519" s="1" t="n">
-        <v>45686.85992347222</v>
+        <v>45713.41814222222</v>
       </c>
       <c r="I519" s="1" t="n">
         <v>45640</v>
@@ -19665,10 +19665,10 @@
         </is>
       </c>
       <c r="G520" s="1" t="n">
-        <v>45686.86006347222</v>
+        <v>45713.41828222222</v>
       </c>
       <c r="H520" s="1" t="n">
-        <v>45686.86093847222</v>
+        <v>45713.41915722222</v>
       </c>
       <c r="I520" s="1" t="n">
         <v>45640</v>
@@ -19702,10 +19702,10 @@
         </is>
       </c>
       <c r="G521" s="1" t="n">
-        <v>45686.86006347222</v>
+        <v>45713.41828222222</v>
       </c>
       <c r="H521" s="1" t="n">
-        <v>45686.86093847222</v>
+        <v>45713.41915722222</v>
       </c>
       <c r="I521" s="1" t="n">
         <v>45640</v>
@@ -19739,10 +19739,10 @@
         </is>
       </c>
       <c r="G522" s="1" t="n">
-        <v>45686.83751847222</v>
+        <v>45720.4775</v>
       </c>
       <c r="H522" s="1" t="n">
-        <v>45686.90001847222</v>
+        <v>45720.54</v>
       </c>
       <c r="I522" s="1" t="n">
         <v>45640</v>
@@ -19776,10 +19776,10 @@
         </is>
       </c>
       <c r="G523" s="1" t="n">
-        <v>45686.86107847222</v>
+        <v>45713.41929722222</v>
       </c>
       <c r="H523" s="1" t="n">
-        <v>45686.86195347222</v>
+        <v>45713.42017222222</v>
       </c>
       <c r="I523" s="1" t="n">
         <v>45640</v>
@@ -19813,10 +19813,10 @@
         </is>
       </c>
       <c r="G524" s="1" t="n">
-        <v>45686.86107847222</v>
+        <v>45713.41929722222</v>
       </c>
       <c r="H524" s="1" t="n">
-        <v>45686.86195347222</v>
+        <v>45713.42017222222</v>
       </c>
       <c r="I524" s="1" t="n">
         <v>45640</v>
@@ -19850,10 +19850,10 @@
         </is>
       </c>
       <c r="G525" s="1" t="n">
-        <v>45686.86209347222</v>
+        <v>45713.42031222222</v>
       </c>
       <c r="H525" s="1" t="n">
-        <v>45686.86296847223</v>
+        <v>45713.42118722222</v>
       </c>
       <c r="I525" s="1" t="n">
         <v>45640</v>
@@ -19887,10 +19887,10 @@
         </is>
       </c>
       <c r="G526" s="1" t="n">
-        <v>45686.86209347222</v>
+        <v>45713.42031222222</v>
       </c>
       <c r="H526" s="1" t="n">
-        <v>45686.86296847223</v>
+        <v>45713.42118722222</v>
       </c>
       <c r="I526" s="1" t="n">
         <v>45640</v>
@@ -19904,7 +19904,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -19924,10 +19924,10 @@
         </is>
       </c>
       <c r="G527" s="1" t="n">
-        <v>45687.94616555556</v>
+        <v>45720.661628</v>
       </c>
       <c r="H527" s="1" t="n">
-        <v>45688.04616555556</v>
+        <v>45720.724128</v>
       </c>
       <c r="I527" s="1" t="n">
         <v>45640</v>
@@ -19961,10 +19961,10 @@
         </is>
       </c>
       <c r="G528" s="1" t="n">
-        <v>45686.86310847222</v>
+        <v>45713.42132722222</v>
       </c>
       <c r="H528" s="1" t="n">
-        <v>45686.86398347222</v>
+        <v>45713.42220222222</v>
       </c>
       <c r="I528" s="1" t="n">
         <v>45640</v>
@@ -19998,10 +19998,10 @@
         </is>
       </c>
       <c r="G529" s="1" t="n">
-        <v>45686.86310847222</v>
+        <v>45713.42132722222</v>
       </c>
       <c r="H529" s="1" t="n">
-        <v>45686.86398347222</v>
+        <v>45713.42220222222</v>
       </c>
       <c r="I529" s="1" t="n">
         <v>45640</v>
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="G530" s="1" t="n">
-        <v>45686.86412347222</v>
+        <v>45713.42234222222</v>
       </c>
       <c r="H530" s="1" t="n">
-        <v>45686.86499847222</v>
+        <v>45713.42321722223</v>
       </c>
       <c r="I530" s="1" t="n">
         <v>45640</v>
@@ -20072,10 +20072,10 @@
         </is>
       </c>
       <c r="G531" s="1" t="n">
-        <v>45686.86412347222</v>
+        <v>45713.42234222222</v>
       </c>
       <c r="H531" s="1" t="n">
-        <v>45686.86499847222</v>
+        <v>45713.42321722223</v>
       </c>
       <c r="I531" s="1" t="n">
         <v>45640</v>
@@ -20109,10 +20109,10 @@
         </is>
       </c>
       <c r="G532" s="1" t="n">
-        <v>45687.49738355556</v>
+        <v>45720.526628</v>
       </c>
       <c r="H532" s="1" t="n">
-        <v>45687.55988355556</v>
+        <v>45720.589128</v>
       </c>
       <c r="I532" s="1" t="n">
         <v>45640</v>
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="G533" s="1" t="n">
-        <v>45686.86513847223</v>
+        <v>45713.42335722222</v>
       </c>
       <c r="H533" s="1" t="n">
-        <v>45686.86601347222</v>
+        <v>45713.42423222222</v>
       </c>
       <c r="I533" s="1" t="n">
         <v>45640</v>
@@ -20183,10 +20183,10 @@
         </is>
       </c>
       <c r="G534" s="1" t="n">
-        <v>45686.86513847223</v>
+        <v>45713.42335722222</v>
       </c>
       <c r="H534" s="1" t="n">
-        <v>45686.86601347222</v>
+        <v>45713.42423222222</v>
       </c>
       <c r="I534" s="1" t="n">
         <v>45640</v>
@@ -20220,10 +20220,10 @@
         </is>
       </c>
       <c r="G535" s="1" t="n">
-        <v>45686.86615347222</v>
+        <v>45713.42437222222</v>
       </c>
       <c r="H535" s="1" t="n">
-        <v>45686.86702847222</v>
+        <v>45713.42524722222</v>
       </c>
       <c r="I535" s="1" t="n">
         <v>45640</v>
@@ -20257,10 +20257,10 @@
         </is>
       </c>
       <c r="G536" s="1" t="n">
-        <v>45686.86615347222</v>
+        <v>45713.42437222222</v>
       </c>
       <c r="H536" s="1" t="n">
-        <v>45686.86702847222</v>
+        <v>45713.42524722222</v>
       </c>
       <c r="I536" s="1" t="n">
         <v>45640</v>
@@ -20274,7 +20274,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BUN054</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -20294,10 +20294,10 @@
         </is>
       </c>
       <c r="G537" s="1" t="n">
-        <v>45687.42988355555</v>
+        <v>45720.41</v>
       </c>
       <c r="H537" s="1" t="n">
-        <v>45687.49238355555</v>
+        <v>45720.4725</v>
       </c>
       <c r="I537" s="1" t="n">
         <v>45640</v>
@@ -20331,10 +20331,10 @@
         </is>
       </c>
       <c r="G538" s="1" t="n">
-        <v>45686.86716847222</v>
+        <v>45713.42538722223</v>
       </c>
       <c r="H538" s="1" t="n">
-        <v>45686.86804347222</v>
+        <v>45713.42626222222</v>
       </c>
       <c r="I538" s="1" t="n">
         <v>45640</v>
@@ -20368,10 +20368,10 @@
         </is>
       </c>
       <c r="G539" s="1" t="n">
-        <v>45686.86716847222</v>
+        <v>45713.42538722223</v>
       </c>
       <c r="H539" s="1" t="n">
-        <v>45686.86804347222</v>
+        <v>45713.42626222222</v>
       </c>
       <c r="I539" s="1" t="n">
         <v>45640</v>
@@ -20405,10 +20405,10 @@
         </is>
       </c>
       <c r="G540" s="1" t="n">
-        <v>45686.86818347222</v>
+        <v>45713.42640222222</v>
       </c>
       <c r="H540" s="1" t="n">
-        <v>45686.86905847222</v>
+        <v>45713.42727722222</v>
       </c>
       <c r="I540" s="1" t="n">
         <v>45640</v>
@@ -20442,10 +20442,10 @@
         </is>
       </c>
       <c r="G541" s="1" t="n">
-        <v>45686.86818347222</v>
+        <v>45713.42640222222</v>
       </c>
       <c r="H541" s="1" t="n">
-        <v>45686.86905847222</v>
+        <v>45713.42727722222</v>
       </c>
       <c r="I541" s="1" t="n">
         <v>45640</v>
@@ -20459,7 +20459,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -20479,10 +20479,10 @@
         </is>
       </c>
       <c r="G542" s="1" t="n">
-        <v>45687.18326847222</v>
+        <v>45719.89066666667</v>
       </c>
       <c r="H542" s="1" t="n">
-        <v>45687.24576847222</v>
+        <v>45719.99066666666</v>
       </c>
       <c r="I542" s="1" t="n">
         <v>45640</v>
@@ -20516,10 +20516,10 @@
         </is>
       </c>
       <c r="G543" s="1" t="n">
-        <v>45686.86919847222</v>
+        <v>45713.42741722222</v>
       </c>
       <c r="H543" s="1" t="n">
-        <v>45686.87007347222</v>
+        <v>45713.42829222222</v>
       </c>
       <c r="I543" s="1" t="n">
         <v>45640</v>
@@ -20553,10 +20553,10 @@
         </is>
       </c>
       <c r="G544" s="1" t="n">
-        <v>45686.86919847222</v>
+        <v>45713.42741722222</v>
       </c>
       <c r="H544" s="1" t="n">
-        <v>45686.87007347222</v>
+        <v>45713.42829222222</v>
       </c>
       <c r="I544" s="1" t="n">
         <v>45640</v>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="G545" s="1" t="n">
-        <v>45686.87021347222</v>
+        <v>45713.42843222222</v>
       </c>
       <c r="H545" s="1" t="n">
-        <v>45686.87108847222</v>
+        <v>45713.42930722222</v>
       </c>
       <c r="I545" s="1" t="n">
         <v>45640</v>
@@ -20627,10 +20627,10 @@
         </is>
       </c>
       <c r="G546" s="1" t="n">
-        <v>45686.87021347222</v>
+        <v>45713.42843222222</v>
       </c>
       <c r="H546" s="1" t="n">
-        <v>45686.87108847222</v>
+        <v>45713.42930722222</v>
       </c>
       <c r="I546" s="1" t="n">
         <v>45640</v>
@@ -20644,7 +20644,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -20664,10 +20664,10 @@
         </is>
       </c>
       <c r="G547" s="1" t="n">
-        <v>45687.40616555556</v>
+        <v>45720.391628</v>
       </c>
       <c r="H547" s="1" t="n">
-        <v>45687.50616555555</v>
+        <v>45720.454128</v>
       </c>
       <c r="I547" s="1" t="n">
         <v>45640</v>
@@ -20701,10 +20701,10 @@
         </is>
       </c>
       <c r="G548" s="1" t="n">
-        <v>45686.87122847222</v>
+        <v>45713.42944722222</v>
       </c>
       <c r="H548" s="1" t="n">
-        <v>45686.87210347223</v>
+        <v>45713.43032222222</v>
       </c>
       <c r="I548" s="1" t="n">
         <v>45640</v>
@@ -20738,10 +20738,10 @@
         </is>
       </c>
       <c r="G549" s="1" t="n">
-        <v>45686.87122847222</v>
+        <v>45713.42944722222</v>
       </c>
       <c r="H549" s="1" t="n">
-        <v>45686.87210347223</v>
+        <v>45713.43032222222</v>
       </c>
       <c r="I549" s="1" t="n">
         <v>45640</v>
@@ -20775,10 +20775,10 @@
         </is>
       </c>
       <c r="G550" s="1" t="n">
-        <v>45686.87224347222</v>
+        <v>45713.43046222222</v>
       </c>
       <c r="H550" s="1" t="n">
-        <v>45686.87311847222</v>
+        <v>45713.43133722222</v>
       </c>
       <c r="I550" s="1" t="n">
         <v>45640</v>
@@ -20812,10 +20812,10 @@
         </is>
       </c>
       <c r="G551" s="1" t="n">
-        <v>45686.87224347222</v>
+        <v>45713.43046222222</v>
       </c>
       <c r="H551" s="1" t="n">
-        <v>45686.87311847222</v>
+        <v>45713.43133722222</v>
       </c>
       <c r="I551" s="1" t="n">
         <v>45640</v>
@@ -20849,10 +20849,10 @@
         </is>
       </c>
       <c r="G552" s="1" t="n">
-        <v>45687.11576847222</v>
+        <v>45720.275</v>
       </c>
       <c r="H552" s="1" t="n">
-        <v>45687.17826847222</v>
+        <v>45720.3375</v>
       </c>
       <c r="I552" s="1" t="n">
         <v>45640</v>
@@ -20886,10 +20886,10 @@
         </is>
       </c>
       <c r="G553" s="1" t="n">
-        <v>45686.87325847222</v>
+        <v>45713.43147722222</v>
       </c>
       <c r="H553" s="1" t="n">
-        <v>45686.87413347222</v>
+        <v>45713.43235222223</v>
       </c>
       <c r="I553" s="1" t="n">
         <v>45640</v>
@@ -20923,10 +20923,10 @@
         </is>
       </c>
       <c r="G554" s="1" t="n">
-        <v>45686.87325847222</v>
+        <v>45713.43147722222</v>
       </c>
       <c r="H554" s="1" t="n">
-        <v>45686.87413347222</v>
+        <v>45713.43235222223</v>
       </c>
       <c r="I554" s="1" t="n">
         <v>45640</v>
@@ -20960,10 +20960,10 @@
         </is>
       </c>
       <c r="G555" s="1" t="n">
-        <v>45686.87427347223</v>
+        <v>45713.43249222222</v>
       </c>
       <c r="H555" s="1" t="n">
-        <v>45686.87514847222</v>
+        <v>45713.43336722222</v>
       </c>
       <c r="I555" s="1" t="n">
         <v>45640</v>
@@ -20997,10 +20997,10 @@
         </is>
       </c>
       <c r="G556" s="1" t="n">
-        <v>45686.87427347223</v>
+        <v>45713.43249222222</v>
       </c>
       <c r="H556" s="1" t="n">
-        <v>45686.87514847222</v>
+        <v>45713.43336722222</v>
       </c>
       <c r="I556" s="1" t="n">
         <v>45640</v>
@@ -21034,10 +21034,10 @@
         </is>
       </c>
       <c r="G557" s="1" t="n">
-        <v>45687.25076847222</v>
+        <v>45720.0725</v>
       </c>
       <c r="H557" s="1" t="n">
-        <v>45687.31326847222</v>
+        <v>45720.135</v>
       </c>
       <c r="I557" s="1" t="n">
         <v>45640</v>
@@ -21071,10 +21071,10 @@
         </is>
       </c>
       <c r="G558" s="1" t="n">
-        <v>45686.87528847222</v>
+        <v>45713.43350722222</v>
       </c>
       <c r="H558" s="1" t="n">
-        <v>45686.87616347223</v>
+        <v>45713.43438222222</v>
       </c>
       <c r="I558" s="1" t="n">
         <v>45640</v>
@@ -21108,10 +21108,10 @@
         </is>
       </c>
       <c r="G559" s="1" t="n">
-        <v>45686.87528847222</v>
+        <v>45713.43350722222</v>
       </c>
       <c r="H559" s="1" t="n">
-        <v>45686.87616347223</v>
+        <v>45713.43438222222</v>
       </c>
       <c r="I559" s="1" t="n">
         <v>45640</v>
@@ -21145,10 +21145,10 @@
         </is>
       </c>
       <c r="G560" s="1" t="n">
-        <v>45686.87630347222</v>
+        <v>45713.43452222223</v>
       </c>
       <c r="H560" s="1" t="n">
-        <v>45686.87717847222</v>
+        <v>45713.43539722222</v>
       </c>
       <c r="I560" s="1" t="n">
         <v>45640</v>
@@ -21182,10 +21182,10 @@
         </is>
       </c>
       <c r="G561" s="1" t="n">
-        <v>45686.87630347222</v>
+        <v>45713.43452222223</v>
       </c>
       <c r="H561" s="1" t="n">
-        <v>45686.87717847222</v>
+        <v>45713.43539722222</v>
       </c>
       <c r="I561" s="1" t="n">
         <v>45640</v>
@@ -21199,7 +21199,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>BUN054</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -21219,10 +21219,10 @@
         </is>
       </c>
       <c r="G562" s="1" t="n">
-        <v>45687.10312958333</v>
+        <v>45720.20764444445</v>
       </c>
       <c r="H562" s="1" t="n">
-        <v>45687.11076847222</v>
+        <v>45720.21986666667</v>
       </c>
       <c r="I562" s="1" t="n">
         <v>45640</v>
@@ -21256,10 +21256,10 @@
         </is>
       </c>
       <c r="G563" s="1" t="n">
-        <v>45686.87719558334</v>
+        <v>45713.43541433333</v>
       </c>
       <c r="H563" s="1" t="n">
-        <v>45686.87730252778</v>
+        <v>45713.43552127778</v>
       </c>
       <c r="I563" s="1" t="n">
         <v>45640</v>
@@ -21293,10 +21293,10 @@
         </is>
       </c>
       <c r="G564" s="1" t="n">
-        <v>45686.87719558334</v>
+        <v>45713.43541433333</v>
       </c>
       <c r="H564" s="1" t="n">
-        <v>45686.87730252778</v>
+        <v>45713.43552127778</v>
       </c>
       <c r="I564" s="1" t="n">
         <v>45640</v>
@@ -21330,10 +21330,10 @@
         </is>
       </c>
       <c r="G565" s="1" t="n">
-        <v>45686.87731963889</v>
+        <v>45713.43553838889</v>
       </c>
       <c r="H565" s="1" t="n">
-        <v>45686.87742658333</v>
+        <v>45713.43564533333</v>
       </c>
       <c r="I565" s="1" t="n">
         <v>45640</v>
@@ -21367,10 +21367,10 @@
         </is>
       </c>
       <c r="G566" s="1" t="n">
-        <v>45686.87731963889</v>
+        <v>45713.43553838889</v>
       </c>
       <c r="H566" s="1" t="n">
-        <v>45686.87742658333</v>
+        <v>45713.43564533333</v>
       </c>
       <c r="I566" s="1" t="n">
         <v>45640</v>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>BMC003</t>
+          <t>BUN005</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -21404,10 +21404,10 @@
         </is>
       </c>
       <c r="G567" s="1" t="n">
-        <v>45687.23638777778</v>
+        <v>45720.93051688889</v>
       </c>
       <c r="H567" s="1" t="n">
-        <v>45687.31416555556</v>
+        <v>45720.979128</v>
       </c>
       <c r="I567" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21441,10 +21441,10 @@
         </is>
       </c>
       <c r="G568" s="1" t="n">
-        <v>45686.87753547222</v>
+        <v>45713.43575422222</v>
       </c>
       <c r="H568" s="1" t="n">
-        <v>45686.87821602778</v>
+        <v>45713.43643477778</v>
       </c>
       <c r="I568" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21478,10 +21478,10 @@
         </is>
       </c>
       <c r="G569" s="1" t="n">
-        <v>45686.87753547222</v>
+        <v>45713.43575422222</v>
       </c>
       <c r="H569" s="1" t="n">
-        <v>45686.87821602778</v>
+        <v>45713.43643477778</v>
       </c>
       <c r="I569" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21515,10 +21515,10 @@
         </is>
       </c>
       <c r="G570" s="1" t="n">
-        <v>45686.87832491667</v>
+        <v>45713.43654366666</v>
       </c>
       <c r="H570" s="1" t="n">
-        <v>45686.87900547222</v>
+        <v>45713.43722422222</v>
       </c>
       <c r="I570" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21552,10 +21552,10 @@
         </is>
       </c>
       <c r="G571" s="1" t="n">
-        <v>45686.87832491667</v>
+        <v>45713.43654366666</v>
       </c>
       <c r="H571" s="1" t="n">
-        <v>45686.87900547222</v>
+        <v>45713.43722422222</v>
       </c>
       <c r="I571" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21589,10 +21589,10 @@
         </is>
       </c>
       <c r="G572" s="1" t="n">
-        <v>45686.87911436111</v>
+        <v>45713.43733311111</v>
       </c>
       <c r="H572" s="1" t="n">
-        <v>45686.87979491667</v>
+        <v>45713.43801366667</v>
       </c>
       <c r="I572" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21626,10 +21626,10 @@
         </is>
       </c>
       <c r="G573" s="1" t="n">
-        <v>45686.87911436111</v>
+        <v>45713.43733311111</v>
       </c>
       <c r="H573" s="1" t="n">
-        <v>45686.87979491667</v>
+        <v>45713.43801366667</v>
       </c>
       <c r="I573" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21643,7 +21643,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -21663,10 +21663,10 @@
         </is>
       </c>
       <c r="G574" s="1" t="n">
-        <v>45687.17377244445</v>
+        <v>45720.41808888889</v>
       </c>
       <c r="H574" s="1" t="n">
-        <v>45687.22238355556</v>
+        <v>45720.49586666666</v>
       </c>
       <c r="I574" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21700,10 +21700,10 @@
         </is>
       </c>
       <c r="G575" s="1" t="n">
-        <v>45686.87990380556</v>
+        <v>45713.43812255556</v>
       </c>
       <c r="H575" s="1" t="n">
-        <v>45686.88058436111</v>
+        <v>45713.43880311111</v>
       </c>
       <c r="I575" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21737,10 +21737,10 @@
         </is>
       </c>
       <c r="G576" s="1" t="n">
-        <v>45686.87990380556</v>
+        <v>45713.43812255556</v>
       </c>
       <c r="H576" s="1" t="n">
-        <v>45686.88058436111</v>
+        <v>45713.43880311111</v>
       </c>
       <c r="I576" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21774,10 +21774,10 @@
         </is>
       </c>
       <c r="G577" s="1" t="n">
-        <v>45686.88069325</v>
+        <v>45713.438912</v>
       </c>
       <c r="H577" s="1" t="n">
-        <v>45686.88137380555</v>
+        <v>45713.43959255556</v>
       </c>
       <c r="I577" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21811,10 +21811,10 @@
         </is>
       </c>
       <c r="G578" s="1" t="n">
-        <v>45686.88069325</v>
+        <v>45713.438912</v>
       </c>
       <c r="H578" s="1" t="n">
-        <v>45686.88137380555</v>
+        <v>45713.43959255556</v>
       </c>
       <c r="I578" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21848,10 +21848,10 @@
         </is>
       </c>
       <c r="G579" s="1" t="n">
-        <v>45686.88148269444</v>
+        <v>45713.43970144445</v>
       </c>
       <c r="H579" s="1" t="n">
-        <v>45686.88216325</v>
+        <v>45713.440382</v>
       </c>
       <c r="I579" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21885,10 +21885,10 @@
         </is>
       </c>
       <c r="G580" s="1" t="n">
-        <v>45686.88148269444</v>
+        <v>45713.43970144445</v>
       </c>
       <c r="H580" s="1" t="n">
-        <v>45686.88216325</v>
+        <v>45713.440382</v>
       </c>
       <c r="I580" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21922,10 +21922,10 @@
         </is>
       </c>
       <c r="G581" s="1" t="n">
-        <v>45687.32038777778</v>
+        <v>45720.33408888889</v>
       </c>
       <c r="H581" s="1" t="n">
-        <v>45687.39816555555</v>
+        <v>45720.41186666667</v>
       </c>
       <c r="I581" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21959,10 +21959,10 @@
         </is>
       </c>
       <c r="G582" s="1" t="n">
-        <v>45686.88227213889</v>
+        <v>45713.44049088889</v>
       </c>
       <c r="H582" s="1" t="n">
-        <v>45686.88295269445</v>
+        <v>45713.44117144444</v>
       </c>
       <c r="I582" s="1" t="n">
         <v>45640.10763888889</v>
@@ -21996,10 +21996,10 @@
         </is>
       </c>
       <c r="G583" s="1" t="n">
-        <v>45686.88227213889</v>
+        <v>45713.44049088889</v>
       </c>
       <c r="H583" s="1" t="n">
-        <v>45686.88295269445</v>
+        <v>45713.44117144444</v>
       </c>
       <c r="I583" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22033,10 +22033,10 @@
         </is>
       </c>
       <c r="G584" s="1" t="n">
-        <v>45686.88306158334</v>
+        <v>45713.44128033333</v>
       </c>
       <c r="H584" s="1" t="n">
-        <v>45686.88374213889</v>
+        <v>45713.44196088889</v>
       </c>
       <c r="I584" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22070,10 +22070,10 @@
         </is>
       </c>
       <c r="G585" s="1" t="n">
-        <v>45686.88306158334</v>
+        <v>45713.44128033333</v>
       </c>
       <c r="H585" s="1" t="n">
-        <v>45686.88374213889</v>
+        <v>45713.44196088889</v>
       </c>
       <c r="I585" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22107,10 +22107,10 @@
         </is>
       </c>
       <c r="G586" s="1" t="n">
-        <v>45686.88385102778</v>
+        <v>45713.44206977778</v>
       </c>
       <c r="H586" s="1" t="n">
-        <v>45686.88453158333</v>
+        <v>45713.44275033334</v>
       </c>
       <c r="I586" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22144,10 +22144,10 @@
         </is>
       </c>
       <c r="G587" s="1" t="n">
-        <v>45686.88385102778</v>
+        <v>45713.44206977778</v>
       </c>
       <c r="H587" s="1" t="n">
-        <v>45686.88453158333</v>
+        <v>45713.44275033334</v>
       </c>
       <c r="I587" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22161,7 +22161,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>BUN005</t>
+          <t>BMC003</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -22181,10 +22181,10 @@
         </is>
       </c>
       <c r="G588" s="1" t="n">
-        <v>45687.12196688889</v>
+        <v>45720.502</v>
       </c>
       <c r="H588" s="1" t="n">
-        <v>45687.16988355556</v>
+        <v>45720.57866666667</v>
       </c>
       <c r="I588" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22218,10 +22218,10 @@
         </is>
       </c>
       <c r="G589" s="1" t="n">
-        <v>45686.88463891666</v>
+        <v>45713.44285766667</v>
       </c>
       <c r="H589" s="1" t="n">
-        <v>45686.88530975</v>
+        <v>45713.4435285</v>
       </c>
       <c r="I589" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22255,10 +22255,10 @@
         </is>
       </c>
       <c r="G590" s="1" t="n">
-        <v>45686.88463891666</v>
+        <v>45713.44285766667</v>
       </c>
       <c r="H590" s="1" t="n">
-        <v>45686.88530975</v>
+        <v>45713.4435285</v>
       </c>
       <c r="I590" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22292,10 +22292,10 @@
         </is>
       </c>
       <c r="G591" s="1" t="n">
-        <v>45686.88541708334</v>
+        <v>45713.44363583333</v>
       </c>
       <c r="H591" s="1" t="n">
-        <v>45686.88608791667</v>
+        <v>45713.44430666666</v>
       </c>
       <c r="I591" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22329,10 +22329,10 @@
         </is>
       </c>
       <c r="G592" s="1" t="n">
-        <v>45686.88541708334</v>
+        <v>45713.44363583333</v>
       </c>
       <c r="H592" s="1" t="n">
-        <v>45686.88608791667</v>
+        <v>45713.44430666666</v>
       </c>
       <c r="I592" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="G593" s="1" t="n">
-        <v>45686.88619525</v>
+        <v>45713.444414</v>
       </c>
       <c r="H593" s="1" t="n">
-        <v>45686.88686608333</v>
+        <v>45713.44508483334</v>
       </c>
       <c r="I593" s="1" t="n">
         <v>45640.10763888889</v>
@@ -22403,10 +22403,10 @@
         </is>
       </c>
       <c r="G594" s="1" t="n">
-        <v>45686.88619525</v>
+        <v>45713.444414</v>
       </c>
       <c r="H594" s="1" t="n">
-        <v>45686.88686608333</v>
+        <v>45713.44508483334</v>
       </c>
       <c r="I594" s="1" t="n">
         <v>45640.10763888889</v>
